--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13295.54478291623</v>
+        <v>-23136.61353739527</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13723001.70096724</v>
+        <v>13574129.53912391</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2997039.853281278</v>
+        <v>3065834.743060521</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13.26313419174923</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.05805425947915</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>10.48814958926336</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="C5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.021643902788004</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.536891551628976</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="D5" t="n">
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>18.21830727030011</v>
-      </c>
-      <c r="E5" t="n">
-        <v>16.04668504368034</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.706151199248216</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.34053384443212</v>
       </c>
       <c r="S6" t="n">
-        <v>16.04668504368034</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="T6" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>18.21830727030011</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.5891238419305889</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5891238419305923</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20.70735517432629</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>23.50971295904438</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="H8" t="n">
-        <v>23.50971295904438</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.1585647136001427</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>14.11143217127993</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.437358289446211</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.03700156004394</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.775148425455178</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>12.60890503121191</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="V9" t="n">
-        <v>10.67035361428236</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="W9" t="n">
-        <v>23.50971295904438</v>
+        <v>4.323301717659191</v>
       </c>
       <c r="X9" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.50971295904438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3.183833028195926</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3.183833028195925</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="D11" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>12.52577934020787</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.31475795090748</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>30.47290791452697</v>
+        <v>77.59291375621572</v>
       </c>
       <c r="U11" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5.898663481595442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>5.146189892547333</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.838861968561448</v>
       </c>
       <c r="T12" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="U12" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="V12" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>26.84053729111534</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>8.485091266345599</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>76.72452921209064</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.47290791452697</v>
+        <v>77.59291375621575</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>14.31475795090746</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>12.52577934020788</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>26.84053729111534</v>
+        <v>12.88371534270431</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>30.47290791452697</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>88.09368046800154</v>
       </c>
     </row>
     <row r="16">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.485091266345567</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>76.72452921209067</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>191.2559944003689</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>168.4582798678449</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>168.4582798678451</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>191.2559944003689</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>191.2559944003689</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.63376431607153</v>
       </c>
       <c r="H18" t="n">
-        <v>12.96410735702727</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.60506467971084</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>161.7871862173322</v>
       </c>
       <c r="V18" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.47880521537898</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>26.47880521537899</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>191.255994400369</v>
+        <v>191.2559944003689</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>168.458279867845</v>
+        <v>191.255994400369</v>
       </c>
       <c r="C20" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>191.255994400369</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>168.458279867845</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>49.88165950017657</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>48.21166394479565</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>71.60506467971084</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>182.8889700571583</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>191.255994400369</v>
       </c>
       <c r="W21" t="n">
-        <v>183.1737044712416</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0522912385204</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>26.47880521537894</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>340.2655597281885</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>109.8015835320096</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2459,7 +2459,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W24" t="n">
-        <v>194.5561633951153</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X24" t="n">
         <v>161.8425727710037</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>134.6513473672213</v>
+        <v>131.2346897866121</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>52.07598795884758</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>51.29628209397735</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
-        <v>257.7470843223917</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C27" t="n">
-        <v>116.3308444476707</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D27" t="n">
         <v>102.8015588998678</v>
@@ -2651,7 +2651,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H27" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570837</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>98.08108579103636</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
         <v>133.2527378018481</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>131.2346897866123</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>10.7739011442083</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>271.5073585269046</v>
@@ -2851,10 +2851,10 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>10.29169435725973</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F30" t="n">
-        <v>92.70937201392488</v>
+        <v>92.70937201392526</v>
       </c>
       <c r="G30" t="n">
         <v>91.89163974602977</v>
@@ -2924,7 +2924,7 @@
         <v>57.82042628441737</v>
       </c>
       <c r="T30" t="n">
-        <v>135.5372539824027</v>
+        <v>135.5372539824022</v>
       </c>
       <c r="U30" t="n">
         <v>182.8401460722872</v>
@@ -2961,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>85.74836006834883</v>
+        <v>144.2192796861759</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>54.87189963990947</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>271.5073585269046</v>
@@ -3091,13 +3091,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>61.23309905688826</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>91.89163974603015</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H33" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570837</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>106.5406371297246</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.5190049372437358</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>88.55834452564808</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>299.1848026177996</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T35" t="n">
         <v>208.7218148893222</v>
@@ -3325,7 +3325,7 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
-        <v>100.3215515270466</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3334,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>155.6337801671286</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>142.3326284626157</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>51.29628209397735</v>
       </c>
       <c r="T38" t="n">
-        <v>157.7025606963823</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
         <v>255.5887081042933</v>
@@ -3565,10 +3565,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>56.63068233424869</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3599,7 +3599,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H39" t="n">
-        <v>41.04430296570837</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>17.47820452036996</v>
       </c>
       <c r="H40" t="n">
-        <v>101.8055056489363</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I40" t="n">
         <v>67.97209018366931</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>20.7781174549166</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>271.5073585269046</v>
@@ -3793,16 +3793,16 @@
         <v>51.29628209397735</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>5.731575552327515</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3833,7 +3833,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>91.89163974602977</v>
+        <v>91.89163974603014</v>
       </c>
       <c r="H42" t="n">
         <v>41.04430296570798</v>
@@ -3909,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>131.2346897866123</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>85.74836006834889</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>386.3760933042986</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1413649120695</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
         <v>271.5073585269046</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4073,7 +4073,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H45" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570837</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H46" t="n">
         <v>133.2527378018481</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>38.02886401531206</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>18.45407194098792</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.204644340758332</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="C2" t="n">
-        <v>1.204644340758332</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="D2" t="n">
-        <v>1.204644340758332</v>
+        <v>31.62495597606969</v>
       </c>
       <c r="E2" t="n">
-        <v>1.204644340758332</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="F2" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G2" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H2" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I2" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J2" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K2" t="n">
-        <v>3.442330717834878</v>
+        <v>3.442330717834865</v>
       </c>
       <c r="L2" t="n">
-        <v>12.21491484027815</v>
+        <v>12.21491484027812</v>
       </c>
       <c r="M2" t="n">
-        <v>27.12238855716249</v>
+        <v>27.12238855716245</v>
       </c>
       <c r="N2" t="n">
-        <v>42.02986227404684</v>
+        <v>42.02986227404679</v>
       </c>
       <c r="O2" t="n">
-        <v>54.87532469310613</v>
+        <v>54.87532469310607</v>
       </c>
       <c r="P2" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="R2" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="S2" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="T2" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="U2" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="V2" t="n">
-        <v>45.02206122026088</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="W2" t="n">
-        <v>29.81190540260518</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="X2" t="n">
-        <v>14.60174958494947</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.204644340758332</v>
+        <v>45.02206122026082</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.62495597606974</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="C3" t="n">
-        <v>31.62495597606974</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D3" t="n">
-        <v>31.62495597606974</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E3" t="n">
-        <v>16.41480015841404</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F3" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G3" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H3" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I3" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J3" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K3" t="n">
-        <v>1.204644340758332</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L3" t="n">
-        <v>13.29499852785217</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M3" t="n">
-        <v>28.20247224473653</v>
+        <v>31.59594377243006</v>
       </c>
       <c r="N3" t="n">
-        <v>43.10994596162088</v>
+        <v>45.49886814805494</v>
       </c>
       <c r="O3" t="n">
-        <v>57.84329485148245</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="P3" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.23221703791658</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="R3" t="n">
-        <v>46.83511179372545</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="S3" t="n">
-        <v>46.83511179372545</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T3" t="n">
-        <v>46.83511179372545</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="U3" t="n">
-        <v>46.83511179372545</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="V3" t="n">
-        <v>46.83511179372545</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="W3" t="n">
-        <v>46.83511179372545</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="X3" t="n">
-        <v>31.62495597606974</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="Y3" t="n">
-        <v>31.62495597606974</v>
+        <v>29.81190540260513</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.204644340758332</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.47089850513973</v>
+        <v>22.91196071605645</v>
       </c>
       <c r="C5" t="n">
-        <v>36.06856792907901</v>
+        <v>22.91196071605645</v>
       </c>
       <c r="D5" t="n">
-        <v>17.66623735301829</v>
+        <v>22.91196071605645</v>
       </c>
       <c r="E5" t="n">
-        <v>1.457464581624009</v>
+        <v>22.91196071605645</v>
       </c>
       <c r="F5" t="n">
-        <v>1.457464581624009</v>
+        <v>22.91196071605645</v>
       </c>
       <c r="G5" t="n">
-        <v>1.457464581624009</v>
+        <v>22.91196071605645</v>
       </c>
       <c r="H5" t="n">
-        <v>1.457464581624009</v>
+        <v>4.50963013999573</v>
       </c>
       <c r="I5" t="n">
-        <v>1.457464581624009</v>
+        <v>4.50963013999573</v>
       </c>
       <c r="J5" t="n">
         <v>1.457464581624009</v>
       </c>
       <c r="K5" t="n">
-        <v>5.219099475992273</v>
+        <v>5.219099475992266</v>
       </c>
       <c r="L5" t="n">
-        <v>15.88227649088182</v>
+        <v>15.88227649088181</v>
       </c>
       <c r="M5" t="n">
-        <v>32.89339907886392</v>
+        <v>32.89339907886389</v>
       </c>
       <c r="N5" t="n">
-        <v>50.92952327646101</v>
+        <v>50.92952327646103</v>
       </c>
       <c r="O5" t="n">
         <v>65.79354395927301</v>
@@ -4588,31 +4588,31 @@
         <v>72.87322908120045</v>
       </c>
       <c r="Q5" t="n">
-        <v>72.87322908120045</v>
+        <v>70.3107123623833</v>
       </c>
       <c r="R5" t="n">
-        <v>72.87322908120045</v>
+        <v>70.3107123623833</v>
       </c>
       <c r="S5" t="n">
-        <v>72.87322908120045</v>
+        <v>51.90838178632258</v>
       </c>
       <c r="T5" t="n">
-        <v>72.87322908120045</v>
+        <v>51.90838178632258</v>
       </c>
       <c r="U5" t="n">
-        <v>72.87322908120045</v>
+        <v>51.90838178632258</v>
       </c>
       <c r="V5" t="n">
-        <v>72.87322908120045</v>
+        <v>51.90838178632258</v>
       </c>
       <c r="W5" t="n">
-        <v>72.87322908120045</v>
+        <v>51.90838178632258</v>
       </c>
       <c r="X5" t="n">
-        <v>72.87322908120045</v>
+        <v>51.90838178632258</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.87322908120045</v>
+        <v>33.50605121026186</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.457464581624009</v>
+        <v>22.59328121753141</v>
       </c>
       <c r="C6" t="n">
-        <v>1.457464581624009</v>
+        <v>22.59328121753141</v>
       </c>
       <c r="D6" t="n">
-        <v>1.457464581624009</v>
+        <v>22.59328121753141</v>
       </c>
       <c r="E6" t="n">
-        <v>1.457464581624009</v>
+        <v>22.59328121753141</v>
       </c>
       <c r="F6" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="G6" t="n">
         <v>1.457464581624009</v>
@@ -4649,19 +4649,19 @@
         <v>1.457464581624009</v>
       </c>
       <c r="K6" t="n">
-        <v>5.886021080118655</v>
+        <v>5.886021080118652</v>
       </c>
       <c r="L6" t="n">
-        <v>19.36817474787379</v>
+        <v>19.36817474787378</v>
       </c>
       <c r="M6" t="n">
-        <v>28.67140894156422</v>
+        <v>28.67140894156423</v>
       </c>
       <c r="N6" t="n">
-        <v>46.70753313916133</v>
+        <v>46.70753313916134</v>
       </c>
       <c r="O6" t="n">
-        <v>62.96599962173946</v>
+        <v>62.96599962173947</v>
       </c>
       <c r="P6" t="n">
         <v>72.87322908120045</v>
@@ -4670,28 +4670,28 @@
         <v>72.87322908120045</v>
       </c>
       <c r="R6" t="n">
-        <v>72.87322908120045</v>
+        <v>59.39794236965285</v>
       </c>
       <c r="S6" t="n">
-        <v>56.66445630980617</v>
+        <v>40.99561179359213</v>
       </c>
       <c r="T6" t="n">
-        <v>38.26212573374545</v>
+        <v>40.99561179359213</v>
       </c>
       <c r="U6" t="n">
-        <v>19.85979515768473</v>
+        <v>40.99561179359213</v>
       </c>
       <c r="V6" t="n">
-        <v>1.457464581624009</v>
+        <v>22.59328121753141</v>
       </c>
       <c r="W6" t="n">
-        <v>1.457464581624009</v>
+        <v>22.59328121753141</v>
       </c>
       <c r="X6" t="n">
-        <v>1.457464581624009</v>
+        <v>22.59328121753141</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.457464581624009</v>
+        <v>22.59328121753141</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.052539169432688</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="C7" t="n">
-        <v>2.052539169432688</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="D7" t="n">
-        <v>2.052539169432688</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="E7" t="n">
-        <v>2.052539169432688</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F7" t="n">
-        <v>2.052539169432688</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G7" t="n">
-        <v>2.052539169432688</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H7" t="n">
-        <v>2.052539169432688</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I7" t="n">
-        <v>2.052539169432688</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J7" t="n">
-        <v>2.052539169432688</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K7" t="n">
-        <v>2.052539169432688</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="L7" t="n">
-        <v>2.052539169432688</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="M7" t="n">
         <v>1.457464581624009</v>
       </c>
       <c r="N7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="O7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="P7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="R7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="S7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="T7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="U7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="V7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="W7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="X7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432685</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.03885183617751</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="C8" t="n">
-        <v>94.03885183617751</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="D8" t="n">
-        <v>94.03885183617751</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="E8" t="n">
-        <v>73.12233145807015</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="F8" t="n">
-        <v>49.37514665095462</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="G8" t="n">
         <v>25.62796184383908</v>
@@ -4807,10 +4807,10 @@
         <v>1.88077703672355</v>
       </c>
       <c r="K8" t="n">
-        <v>8.415911685442893</v>
+        <v>8.415911685442902</v>
       </c>
       <c r="L8" t="n">
-        <v>22.51986039522946</v>
+        <v>22.51986039522947</v>
       </c>
       <c r="M8" t="n">
         <v>43.35950445951394</v>
@@ -4819,37 +4819,37 @@
         <v>65.28609961349599</v>
       </c>
       <c r="O8" t="n">
-        <v>83.82378169965438</v>
+        <v>83.82378169965436</v>
       </c>
       <c r="P8" t="n">
-        <v>94.03885183617751</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q8" t="n">
-        <v>94.03885183617751</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="R8" t="n">
-        <v>94.03885183617751</v>
+        <v>79.62471356862187</v>
       </c>
       <c r="S8" t="n">
-        <v>94.03885183617751</v>
+        <v>55.87752876150634</v>
       </c>
       <c r="T8" t="n">
-        <v>94.03885183617751</v>
+        <v>55.87752876150634</v>
       </c>
       <c r="U8" t="n">
-        <v>94.03885183617751</v>
+        <v>55.87752876150634</v>
       </c>
       <c r="V8" t="n">
-        <v>94.03885183617751</v>
+        <v>55.87752876150634</v>
       </c>
       <c r="W8" t="n">
-        <v>94.03885183617751</v>
+        <v>55.87752876150634</v>
       </c>
       <c r="X8" t="n">
-        <v>94.03885183617751</v>
+        <v>49.37514665095461</v>
       </c>
       <c r="Y8" t="n">
-        <v>94.03885183617751</v>
+        <v>49.37514665095461</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.01916245090935</v>
+        <v>29.4412430816726</v>
       </c>
       <c r="C9" t="n">
-        <v>12.01916245090935</v>
+        <v>29.4412430816726</v>
       </c>
       <c r="D9" t="n">
-        <v>12.01916245090935</v>
+        <v>29.4412430816726</v>
       </c>
       <c r="E9" t="n">
-        <v>12.01916245090935</v>
+        <v>5.694058274557063</v>
       </c>
       <c r="F9" t="n">
-        <v>12.01916245090935</v>
+        <v>5.694058274557063</v>
       </c>
       <c r="G9" t="n">
-        <v>12.01916245090935</v>
+        <v>5.694058274557063</v>
       </c>
       <c r="H9" t="n">
-        <v>12.01916245090935</v>
+        <v>5.694058274557063</v>
       </c>
       <c r="I9" t="n">
-        <v>1.88077703672355</v>
+        <v>5.694058274557063</v>
       </c>
       <c r="J9" t="n">
         <v>1.88077703672355</v>
       </c>
       <c r="K9" t="n">
-        <v>1.88077703672355</v>
+        <v>8.19312939818548</v>
       </c>
       <c r="L9" t="n">
-        <v>17.89592671708687</v>
+        <v>24.2082790785488</v>
       </c>
       <c r="M9" t="n">
-        <v>39.73034208625465</v>
+        <v>39.59522696312115</v>
       </c>
       <c r="N9" t="n">
-        <v>63.00495791570859</v>
+        <v>62.86984279257508</v>
       </c>
       <c r="O9" t="n">
-        <v>81.90393668038413</v>
+        <v>81.90393668038412</v>
       </c>
       <c r="P9" t="n">
-        <v>94.03885183617751</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.03885183617751</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R9" t="n">
-        <v>94.03885183617751</v>
+        <v>81.30258412788264</v>
       </c>
       <c r="S9" t="n">
-        <v>94.03885183617751</v>
+        <v>81.30258412788264</v>
       </c>
       <c r="T9" t="n">
-        <v>94.03885183617751</v>
+        <v>81.30258412788264</v>
       </c>
       <c r="U9" t="n">
-        <v>94.03885183617751</v>
+        <v>57.55539932076711</v>
       </c>
       <c r="V9" t="n">
-        <v>83.26071687225594</v>
+        <v>33.80821451365158</v>
       </c>
       <c r="W9" t="n">
-        <v>59.51353206514041</v>
+        <v>29.4412430816726</v>
       </c>
       <c r="X9" t="n">
-        <v>35.76634725802488</v>
+        <v>29.4412430816726</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.01916245090935</v>
+        <v>29.4412430816726</v>
       </c>
     </row>
     <row r="10">
@@ -4968,37 +4968,37 @@
         <v>1.88077703672355</v>
       </c>
       <c r="L10" t="n">
-        <v>2.170301745874835</v>
+        <v>2.170301745874834</v>
       </c>
       <c r="M10" t="n">
         <v>3.005035947119205</v>
       </c>
       <c r="N10" t="n">
-        <v>5.096769994497213</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="O10" t="n">
-        <v>5.096769994497213</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="R10" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="S10" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="U10" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="V10" t="n">
-        <v>1.88077703672355</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="W10" t="n">
         <v>1.88077703672355</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.21854769834092</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="C11" t="n">
-        <v>33.21854769834092</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="D11" t="n">
-        <v>2.437832633162158</v>
+        <v>185.0145256859281</v>
       </c>
       <c r="E11" t="n">
-        <v>2.437832633162158</v>
+        <v>96.0310100616841</v>
       </c>
       <c r="F11" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="G11" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="H11" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I11" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J11" t="n">
-        <v>3.417978136102533</v>
+        <v>24.78252049490589</v>
       </c>
       <c r="K11" t="n">
-        <v>13.13197138347077</v>
+        <v>59.60773643878179</v>
       </c>
       <c r="L11" t="n">
-        <v>31.17957527878673</v>
+        <v>108.8080325753179</v>
       </c>
       <c r="M11" t="n">
-        <v>56.40729559797725</v>
+        <v>168.6991254940436</v>
       </c>
       <c r="N11" t="n">
-        <v>82.79297066826217</v>
+        <v>230.3090627719646</v>
       </c>
       <c r="O11" t="n">
-        <v>105.5412354747657</v>
+        <v>286.3185995386594</v>
       </c>
       <c r="P11" t="n">
-        <v>119.3499405478293</v>
+        <v>328.5150307030227</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="R11" t="n">
-        <v>109.2393292942616</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="S11" t="n">
-        <v>94.77997782869845</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="T11" t="n">
-        <v>63.99926276351968</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="U11" t="n">
-        <v>33.21854769834092</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="V11" t="n">
-        <v>33.21854769834092</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="W11" t="n">
-        <v>33.21854769834092</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="X11" t="n">
-        <v>33.21854769834092</v>
+        <v>273.9980413101721</v>
       </c>
       <c r="Y11" t="n">
-        <v>33.21854769834092</v>
+        <v>273.9980413101721</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.437832633162158</v>
+        <v>13.00574037844562</v>
       </c>
       <c r="C12" t="n">
-        <v>2.437832633162158</v>
+        <v>13.00574037844562</v>
       </c>
       <c r="D12" t="n">
-        <v>2.437832633162158</v>
+        <v>13.00574037844562</v>
       </c>
       <c r="E12" t="n">
-        <v>2.437832633162158</v>
+        <v>13.00574037844562</v>
       </c>
       <c r="F12" t="n">
-        <v>2.437832633162158</v>
+        <v>13.00574037844562</v>
       </c>
       <c r="G12" t="n">
-        <v>2.437832633162158</v>
+        <v>13.00574037844562</v>
       </c>
       <c r="H12" t="n">
-        <v>2.437832633162158</v>
+        <v>13.00574037844562</v>
       </c>
       <c r="I12" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J12" t="n">
-        <v>2.437832633162158</v>
+        <v>14.55245432966376</v>
       </c>
       <c r="K12" t="n">
-        <v>10.90930567516434</v>
+        <v>40.07978517569842</v>
       </c>
       <c r="L12" t="n">
-        <v>29.82765956255555</v>
+        <v>81.93184470419638</v>
       </c>
       <c r="M12" t="n">
-        <v>55.04997730602895</v>
+        <v>133.9167152178291</v>
       </c>
       <c r="N12" t="n">
-        <v>83.28125954763223</v>
+        <v>189.6188753669567</v>
       </c>
       <c r="O12" t="n">
-        <v>105.4966506502406</v>
+        <v>236.9647528833237</v>
       </c>
       <c r="P12" t="n">
-        <v>120.1848372890272</v>
+        <v>271.82237041197</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.8916316581079</v>
+        <v>287.0118951916915</v>
       </c>
       <c r="R12" t="n">
-        <v>121.8916316581079</v>
+        <v>281.8137235830578</v>
       </c>
       <c r="S12" t="n">
-        <v>121.8916316581079</v>
+        <v>279.9562872511776</v>
       </c>
       <c r="T12" t="n">
-        <v>91.11091659292913</v>
+        <v>190.9727716269336</v>
       </c>
       <c r="U12" t="n">
-        <v>60.33020152775036</v>
+        <v>101.9892560026896</v>
       </c>
       <c r="V12" t="n">
-        <v>29.5494864625716</v>
+        <v>101.9892560026896</v>
       </c>
       <c r="W12" t="n">
-        <v>2.437832633162158</v>
+        <v>101.9892560026896</v>
       </c>
       <c r="X12" t="n">
-        <v>2.437832633162158</v>
+        <v>13.00574037844562</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.437832633162158</v>
+        <v>13.00574037844562</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="C13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="D13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="E13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="F13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="G13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="H13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I13" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J13" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="K13" t="n">
-        <v>2.437832633162158</v>
+        <v>15.06648958421997</v>
       </c>
       <c r="L13" t="n">
-        <v>4.393946466374034</v>
+        <v>30.18773465530779</v>
       </c>
       <c r="M13" t="n">
-        <v>6.985865225902416</v>
+        <v>46.66043841756913</v>
       </c>
       <c r="N13" t="n">
-        <v>10.79300191026905</v>
+        <v>64.01830606238372</v>
       </c>
       <c r="O13" t="n">
-        <v>11.00863189209711</v>
+        <v>76.75022933554695</v>
       </c>
       <c r="P13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="R13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="S13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="T13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="U13" t="n">
-        <v>11.00863189209711</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="V13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="W13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="X13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.00863189209711</v>
+        <v>7.047494437440123</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.45861422908278</v>
+        <v>96.0310100616841</v>
       </c>
       <c r="C14" t="n">
-        <v>78.45861422908278</v>
+        <v>96.0310100616841</v>
       </c>
       <c r="D14" t="n">
-        <v>78.45861422908278</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="E14" t="n">
-        <v>78.45861422908278</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="F14" t="n">
-        <v>47.67789916390402</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="G14" t="n">
-        <v>16.89718409872525</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="H14" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I14" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J14" t="n">
-        <v>3.41797813610259</v>
+        <v>24.7825204949059</v>
       </c>
       <c r="K14" t="n">
-        <v>13.13197138347084</v>
+        <v>59.60773643878167</v>
       </c>
       <c r="L14" t="n">
-        <v>31.17957527878679</v>
+        <v>108.8080325753178</v>
       </c>
       <c r="M14" t="n">
-        <v>56.40729559797728</v>
+        <v>168.6991254940436</v>
       </c>
       <c r="N14" t="n">
-        <v>82.79297066826221</v>
+        <v>230.3090627719646</v>
       </c>
       <c r="O14" t="n">
-        <v>105.5412354747657</v>
+        <v>286.3185995386594</v>
       </c>
       <c r="P14" t="n">
-        <v>119.3499405478293</v>
+        <v>328.5150307030226</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.8916316581079</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="R14" t="n">
-        <v>109.2393292942616</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="S14" t="n">
-        <v>109.2393292942616</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="T14" t="n">
-        <v>109.2393292942616</v>
+        <v>263.3912062477622</v>
       </c>
       <c r="U14" t="n">
-        <v>109.2393292942616</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="V14" t="n">
-        <v>109.2393292942616</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="W14" t="n">
-        <v>109.2393292942616</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="X14" t="n">
-        <v>109.2393292942616</v>
+        <v>174.4076906235182</v>
       </c>
       <c r="Y14" t="n">
-        <v>109.2393292942616</v>
+        <v>174.4076906235182</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60.33020152775036</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="C15" t="n">
-        <v>60.33020152775036</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="D15" t="n">
-        <v>60.33020152775036</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="E15" t="n">
-        <v>29.5494864625716</v>
+        <v>20.06134831895963</v>
       </c>
       <c r="F15" t="n">
-        <v>29.5494864625716</v>
+        <v>20.06134831895963</v>
       </c>
       <c r="G15" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="H15" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I15" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J15" t="n">
-        <v>2.437832633162158</v>
+        <v>14.55245432966377</v>
       </c>
       <c r="K15" t="n">
-        <v>10.9093056751644</v>
+        <v>40.07978517569843</v>
       </c>
       <c r="L15" t="n">
-        <v>29.8276595625556</v>
+        <v>81.93184470419641</v>
       </c>
       <c r="M15" t="n">
-        <v>55.04997730602901</v>
+        <v>133.9167152178292</v>
       </c>
       <c r="N15" t="n">
-        <v>83.28125954763229</v>
+        <v>189.6188753669568</v>
       </c>
       <c r="O15" t="n">
-        <v>105.4966506502407</v>
+        <v>236.9647528833238</v>
       </c>
       <c r="P15" t="n">
-        <v>120.1848372890272</v>
+        <v>271.8223704119701</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.8916316581079</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="R15" t="n">
-        <v>121.8916316581079</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="S15" t="n">
-        <v>121.8916316581079</v>
+        <v>287.0118951916916</v>
       </c>
       <c r="T15" t="n">
-        <v>121.8916316581079</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="U15" t="n">
-        <v>121.8916316581079</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="V15" t="n">
-        <v>121.8916316581079</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="W15" t="n">
-        <v>91.11091659292913</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="X15" t="n">
-        <v>60.33020152775036</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="Y15" t="n">
-        <v>60.33020152775036</v>
+        <v>109.0448639432036</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.00863189209707</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="C16" t="n">
-        <v>11.00863189209707</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="D16" t="n">
-        <v>11.00863189209707</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="E16" t="n">
-        <v>11.00863189209707</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="F16" t="n">
-        <v>11.00863189209707</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="G16" t="n">
-        <v>11.00863189209707</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="H16" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="I16" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="J16" t="n">
-        <v>2.437832633162158</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="K16" t="n">
-        <v>2.437832633162158</v>
+        <v>15.06648958421998</v>
       </c>
       <c r="L16" t="n">
-        <v>4.393946466374027</v>
+        <v>30.18773465530781</v>
       </c>
       <c r="M16" t="n">
-        <v>6.985865225902402</v>
+        <v>46.66043841756915</v>
       </c>
       <c r="N16" t="n">
-        <v>10.79300191026902</v>
+        <v>64.01830606238374</v>
       </c>
       <c r="O16" t="n">
-        <v>11.00863189209707</v>
+        <v>76.75022933554698</v>
       </c>
       <c r="P16" t="n">
-        <v>11.00863189209707</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.00863189209707</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="R16" t="n">
-        <v>11.00863189209707</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="S16" t="n">
-        <v>11.00863189209707</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="T16" t="n">
-        <v>11.00863189209707</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="U16" t="n">
-        <v>11.00863189209707</v>
+        <v>84.54701889409738</v>
       </c>
       <c r="V16" t="n">
-        <v>11.00863189209707</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="W16" t="n">
-        <v>11.00863189209707</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="X16" t="n">
-        <v>11.00863189209707</v>
+        <v>7.047494437440123</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.00863189209707</v>
+        <v>7.047494437440123</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>378.6482313381043</v>
+        <v>378.6482313381041</v>
       </c>
       <c r="C17" t="n">
-        <v>378.6482313381043</v>
+        <v>185.4603582064183</v>
       </c>
       <c r="D17" t="n">
-        <v>378.6482313381043</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="E17" t="n">
-        <v>378.6482313381043</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="F17" t="n">
-        <v>378.6482313381043</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="G17" t="n">
-        <v>185.4603582064185</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="H17" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="I17" t="n">
         <v>15.30047955202952</v>
       </c>
       <c r="J17" t="n">
-        <v>61.47172875552918</v>
+        <v>61.47172875552917</v>
       </c>
       <c r="K17" t="n">
         <v>138.9154718648985</v>
@@ -5524,43 +5524,43 @@
         <v>240.9878195381905</v>
       </c>
       <c r="M17" t="n">
-        <v>359.7092571452448</v>
+        <v>359.7092571452447</v>
       </c>
       <c r="N17" t="n">
         <v>481.1014755937832</v>
       </c>
       <c r="O17" t="n">
-        <v>593.5617252439824</v>
+        <v>593.5617252439822</v>
       </c>
       <c r="P17" t="n">
-        <v>683.9375338210157</v>
+        <v>683.9375338210156</v>
       </c>
       <c r="Q17" t="n">
-        <v>743.9779309475099</v>
+        <v>743.9779309475098</v>
       </c>
       <c r="R17" t="n">
-        <v>765.023977601476</v>
+        <v>765.0239776014757</v>
       </c>
       <c r="S17" t="n">
-        <v>765.023977601476</v>
+        <v>765.0239776014757</v>
       </c>
       <c r="T17" t="n">
-        <v>765.023977601476</v>
+        <v>765.0239776014757</v>
       </c>
       <c r="U17" t="n">
-        <v>765.023977601476</v>
+        <v>571.8361044697899</v>
       </c>
       <c r="V17" t="n">
-        <v>765.023977601476</v>
+        <v>378.6482313381041</v>
       </c>
       <c r="W17" t="n">
-        <v>765.023977601476</v>
+        <v>378.6482313381041</v>
       </c>
       <c r="X17" t="n">
-        <v>571.8361044697901</v>
+        <v>378.6482313381041</v>
       </c>
       <c r="Y17" t="n">
-        <v>378.6482313381043</v>
+        <v>378.6482313381041</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>28.3955374884207</v>
+        <v>213.5718721842151</v>
       </c>
       <c r="C18" t="n">
-        <v>28.3955374884207</v>
+        <v>213.5718721842151</v>
       </c>
       <c r="D18" t="n">
-        <v>28.3955374884207</v>
+        <v>213.5718721842151</v>
       </c>
       <c r="E18" t="n">
-        <v>28.3955374884207</v>
+        <v>108.8699384571523</v>
       </c>
       <c r="F18" t="n">
-        <v>28.3955374884207</v>
+        <v>108.8699384571523</v>
       </c>
       <c r="G18" t="n">
-        <v>28.3955374884207</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="H18" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="I18" t="n">
         <v>15.6327953996678</v>
       </c>
       <c r="J18" t="n">
-        <v>40.07417499003835</v>
+        <v>40.07417499003833</v>
       </c>
       <c r="K18" t="n">
-        <v>94.54854469344613</v>
+        <v>94.5485446934461</v>
       </c>
       <c r="L18" t="n">
         <v>175.3234702521545</v>
       </c>
       <c r="M18" t="n">
-        <v>272.7294895500566</v>
+        <v>272.7294895500565</v>
       </c>
       <c r="N18" t="n">
         <v>375.0549611369267</v>
@@ -5612,34 +5612,34 @@
         <v>465.052060015597</v>
       </c>
       <c r="P18" t="n">
-        <v>534.1410428855887</v>
+        <v>534.1410428855886</v>
       </c>
       <c r="Q18" t="n">
-        <v>572.2133288600025</v>
+        <v>572.2133288600024</v>
       </c>
       <c r="R18" t="n">
-        <v>578.2486299851295</v>
+        <v>578.2486299851294</v>
       </c>
       <c r="S18" t="n">
-        <v>578.2486299851295</v>
+        <v>505.9202818238053</v>
       </c>
       <c r="T18" t="n">
-        <v>578.2486299851295</v>
+        <v>505.9202818238053</v>
       </c>
       <c r="U18" t="n">
-        <v>578.2486299851295</v>
+        <v>342.4988816042778</v>
       </c>
       <c r="V18" t="n">
-        <v>385.0607568534436</v>
+        <v>342.4988816042778</v>
       </c>
       <c r="W18" t="n">
-        <v>191.8728837217578</v>
+        <v>342.4988816042778</v>
       </c>
       <c r="X18" t="n">
-        <v>28.3955374884207</v>
+        <v>342.4988816042778</v>
       </c>
       <c r="Y18" t="n">
-        <v>28.3955374884207</v>
+        <v>342.4988816042778</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="C19" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="D19" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="E19" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="F19" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="G19" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="H19" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="I19" t="n">
-        <v>15.30047955202952</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="J19" t="n">
-        <v>23.00527047835667</v>
+        <v>23.00527047835666</v>
       </c>
       <c r="K19" t="n">
         <v>48.48500502844415</v>
       </c>
       <c r="L19" t="n">
-        <v>85.94998501359247</v>
+        <v>85.94998501359245</v>
       </c>
       <c r="M19" t="n">
         <v>125.9810244199253</v>
@@ -5688,37 +5688,37 @@
         <v>166.3370631426646</v>
       </c>
       <c r="O19" t="n">
-        <v>200.3115197681461</v>
+        <v>200.311519768146</v>
       </c>
       <c r="P19" t="n">
-        <v>226.2849663706405</v>
+        <v>226.2849663706404</v>
       </c>
       <c r="Q19" t="n">
-        <v>235.2346205780376</v>
+        <v>235.2346205780375</v>
       </c>
       <c r="R19" t="n">
-        <v>235.2346205780376</v>
+        <v>235.2346205780375</v>
       </c>
       <c r="S19" t="n">
-        <v>235.2346205780376</v>
+        <v>235.2346205780375</v>
       </c>
       <c r="T19" t="n">
-        <v>235.2346205780376</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="U19" t="n">
-        <v>235.2346205780376</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="V19" t="n">
-        <v>42.04674744635173</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="W19" t="n">
-        <v>42.04674744635173</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="X19" t="n">
-        <v>42.04674744635173</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.04674744635173</v>
+        <v>15.30047955202951</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>401.6762258154014</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="C20" t="n">
-        <v>208.4883526837154</v>
+        <v>401.6762258154012</v>
       </c>
       <c r="D20" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="E20" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="F20" t="n">
         <v>15.30047955202952</v>
@@ -5749,55 +5749,55 @@
         <v>15.30047955202952</v>
       </c>
       <c r="I20" t="n">
-        <v>15.30047955202953</v>
+        <v>15.30047955202951</v>
       </c>
       <c r="J20" t="n">
-        <v>61.4717287555294</v>
+        <v>61.47172875552906</v>
       </c>
       <c r="K20" t="n">
-        <v>138.9154718648987</v>
+        <v>138.9154718648984</v>
       </c>
       <c r="L20" t="n">
-        <v>240.9878195381909</v>
+        <v>240.9878195381906</v>
       </c>
       <c r="M20" t="n">
-        <v>359.7092571452453</v>
+        <v>359.7092571452449</v>
       </c>
       <c r="N20" t="n">
-        <v>481.1014755937837</v>
+        <v>481.1014755937833</v>
       </c>
       <c r="O20" t="n">
-        <v>593.5617252439827</v>
+        <v>593.5617252439824</v>
       </c>
       <c r="P20" t="n">
-        <v>683.937533821016</v>
+        <v>683.9375338210157</v>
       </c>
       <c r="Q20" t="n">
-        <v>743.9779309475101</v>
+        <v>743.9779309475098</v>
       </c>
       <c r="R20" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="S20" t="n">
-        <v>765.0239776014762</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="T20" t="n">
-        <v>571.8361044697903</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="U20" t="n">
-        <v>571.8361044697903</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="V20" t="n">
-        <v>571.8361044697903</v>
+        <v>594.864098947087</v>
       </c>
       <c r="W20" t="n">
-        <v>571.8361044697903</v>
+        <v>594.864098947087</v>
       </c>
       <c r="X20" t="n">
-        <v>571.8361044697903</v>
+        <v>594.864098947087</v>
       </c>
       <c r="Y20" t="n">
-        <v>571.8361044697903</v>
+        <v>594.864098947087</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.30047955202952</v>
+        <v>312.7324086921197</v>
       </c>
       <c r="C21" t="n">
-        <v>15.30047955202952</v>
+        <v>312.7324086921197</v>
       </c>
       <c r="D21" t="n">
-        <v>15.30047955202952</v>
+        <v>262.3468940454767</v>
       </c>
       <c r="E21" t="n">
-        <v>15.30047955202952</v>
+        <v>157.6449603184139</v>
       </c>
       <c r="F21" t="n">
-        <v>15.30047955202952</v>
+        <v>63.99913000131806</v>
       </c>
       <c r="G21" t="n">
-        <v>15.30047955202952</v>
+        <v>63.99913000131806</v>
       </c>
       <c r="H21" t="n">
         <v>15.30047955202952</v>
       </c>
       <c r="I21" t="n">
-        <v>15.63279539966781</v>
+        <v>15.6327953996678</v>
       </c>
       <c r="J21" t="n">
-        <v>40.07417499003836</v>
+        <v>40.07417499003835</v>
       </c>
       <c r="K21" t="n">
-        <v>94.54854469344615</v>
+        <v>94.54854469344613</v>
       </c>
       <c r="L21" t="n">
-        <v>175.3234702521546</v>
+        <v>175.3234702521545</v>
       </c>
       <c r="M21" t="n">
         <v>272.7294895500567</v>
@@ -5858,25 +5858,25 @@
         <v>578.2486299851296</v>
       </c>
       <c r="S21" t="n">
-        <v>578.2486299851296</v>
+        <v>505.9202818238055</v>
       </c>
       <c r="T21" t="n">
-        <v>578.2486299851296</v>
+        <v>505.9202818238055</v>
       </c>
       <c r="U21" t="n">
-        <v>393.5122965940606</v>
+        <v>505.9202818238055</v>
       </c>
       <c r="V21" t="n">
-        <v>200.3244234623746</v>
+        <v>312.7324086921197</v>
       </c>
       <c r="W21" t="n">
-        <v>15.30047955202952</v>
+        <v>312.7324086921197</v>
       </c>
       <c r="X21" t="n">
-        <v>15.30047955202952</v>
+        <v>312.7324086921197</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.30047955202952</v>
+        <v>312.7324086921197</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="C22" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="D22" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="E22" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="F22" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="G22" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="H22" t="n">
-        <v>15.30047955202952</v>
+        <v>102.8585688219563</v>
       </c>
       <c r="I22" t="n">
         <v>15.30047955202952</v>
       </c>
       <c r="J22" t="n">
-        <v>23.00527047835668</v>
+        <v>23.00527047835667</v>
       </c>
       <c r="K22" t="n">
         <v>48.48500502844416</v>
@@ -5940,22 +5940,22 @@
         <v>235.2346205780376</v>
       </c>
       <c r="T22" t="n">
-        <v>208.4883526837154</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="U22" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="V22" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="W22" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="X22" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.30047955202952</v>
+        <v>235.2346205780376</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1287.390903253625</v>
+        <v>1245.009151168839</v>
       </c>
       <c r="C23" t="n">
-        <v>860.4901732669248</v>
+        <v>1245.009151168839</v>
       </c>
       <c r="D23" t="n">
-        <v>860.4901732669248</v>
+        <v>901.3065655848104</v>
       </c>
       <c r="E23" t="n">
-        <v>860.4901732669248</v>
+        <v>475.329625732668</v>
       </c>
       <c r="F23" t="n">
-        <v>435.365991456325</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G23" t="n">
-        <v>324.4553010199517</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H23" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I23" t="n">
-        <v>103.1440473010162</v>
+        <v>103.1440473010159</v>
       </c>
       <c r="J23" t="n">
-        <v>265.860210285308</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K23" t="n">
         <v>517.9745679998224</v>
@@ -5998,7 +5998,7 @@
         <v>836.7412585230811</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N23" t="n">
         <v>1562.984812457614</v>
@@ -6016,25 +6016,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S23" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T23" t="n">
-        <v>2299.442080053587</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U23" t="n">
-        <v>2041.271667827028</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="V23" t="n">
-        <v>1683.782252953278</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="W23" t="n">
-        <v>1287.390903253625</v>
+        <v>2062.066420046202</v>
       </c>
       <c r="X23" t="n">
-        <v>1287.390903253625</v>
+        <v>1650.346421213949</v>
       </c>
       <c r="Y23" t="n">
-        <v>1287.390903253625</v>
+        <v>1245.009151168839</v>
       </c>
     </row>
     <row r="24">
@@ -6053,10 +6053,10 @@
         <v>382.8319379780831</v>
       </c>
       <c r="E24" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510204</v>
       </c>
       <c r="F24" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339246</v>
       </c>
       <c r="G24" t="n">
         <v>91.66433580662168</v>
@@ -6065,16 +6065,16 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83346633145929</v>
+        <v>75.83346633145956</v>
       </c>
       <c r="J24" t="n">
-        <v>169.6881981570806</v>
+        <v>169.6881981570807</v>
       </c>
       <c r="K24" t="n">
-        <v>342.80104282661</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L24" t="n">
-        <v>583.1000388744362</v>
+        <v>583.1000388744363</v>
       </c>
       <c r="M24" t="n">
         <v>866.6631241688303</v>
@@ -6101,7 +6101,7 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U24" t="n">
-        <v>1437.769560272918</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V24" t="n">
         <v>1232.796421412184</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>222.0672181475077</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="C25" t="n">
-        <v>222.0672181475077</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="D25" t="n">
-        <v>222.0672181475077</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="E25" t="n">
-        <v>222.0672181475077</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="F25" t="n">
-        <v>50.20544392206816</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="G25" t="n">
-        <v>50.20544392206816</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H25" t="n">
-        <v>50.20544392206816</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I25" t="n">
         <v>50.20544392206816</v>
@@ -6150,49 +6150,49 @@
         <v>101.4579413382349</v>
       </c>
       <c r="K25" t="n">
-        <v>198.499934977965</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L25" t="n">
-        <v>327.5399685743821</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1240622438376</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N25" t="n">
-        <v>598.7373394060099</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O25" t="n">
-        <v>719.7736117064337</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P25" t="n">
-        <v>820.2434820122618</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q25" t="n">
-        <v>880.7705985416227</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R25" t="n">
-        <v>880.7705985416227</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S25" t="n">
-        <v>880.7705985416227</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T25" t="n">
-        <v>744.7591365545304</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="U25" t="n">
-        <v>464.6311147017026</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="V25" t="n">
-        <v>464.6311147017026</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="W25" t="n">
-        <v>464.6311147017026</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="X25" t="n">
-        <v>222.0672181475077</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.0672181475077</v>
+        <v>748.2103058278728</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>726.4881487176426</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="C26" t="n">
-        <v>726.4881487176426</v>
+        <v>1205.067096609025</v>
       </c>
       <c r="D26" t="n">
-        <v>726.4881487176426</v>
+        <v>1152.465088569785</v>
       </c>
       <c r="E26" t="n">
         <v>726.4881487176426</v>
@@ -6223,16 +6223,16 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1440473010162</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J26" t="n">
         <v>265.860210285308</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998224</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M26" t="n">
         <v>1196.576905080624</v>
@@ -6256,22 +6256,22 @@
         <v>2458.457769745855</v>
       </c>
       <c r="T26" t="n">
-        <v>2458.457769745855</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U26" t="n">
-        <v>2200.287357519296</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V26" t="n">
-        <v>1939.936767294658</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W26" t="n">
-        <v>1543.545417595005</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="X26" t="n">
-        <v>1131.825418762752</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="Y26" t="n">
-        <v>726.4881487176426</v>
+        <v>1631.967826595725</v>
       </c>
     </row>
     <row r="27">
@@ -6284,19 +6284,19 @@
         <v>604.1777999452937</v>
       </c>
       <c r="C27" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D27" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780835</v>
       </c>
       <c r="E27" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510207</v>
       </c>
       <c r="F27" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339249</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662206</v>
       </c>
       <c r="H27" t="n">
         <v>50.20544392206816</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>690.6046298295571</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="C28" t="n">
-        <v>690.6046298295571</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="D28" t="n">
-        <v>690.6046298295571</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="E28" t="n">
-        <v>524.3964239824106</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="F28" t="n">
-        <v>352.534649756971</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="G28" t="n">
         <v>253.4628459276414</v>
@@ -6414,22 +6414,22 @@
         <v>880.7705985416227</v>
       </c>
       <c r="T28" t="n">
-        <v>880.7705985416227</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="U28" t="n">
-        <v>880.7705985416227</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="V28" t="n">
-        <v>880.7705985416227</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="W28" t="n">
-        <v>880.7705985416227</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="X28" t="n">
-        <v>880.7705985416227</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="Y28" t="n">
-        <v>880.7705985416227</v>
+        <v>748.2103058278728</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1164.271607132836</v>
+        <v>1177.332970858794</v>
       </c>
       <c r="C29" t="n">
-        <v>737.3708771461359</v>
+        <v>750.4322408720941</v>
       </c>
       <c r="D29" t="n">
-        <v>737.3708771461359</v>
+        <v>750.4322408720941</v>
       </c>
       <c r="E29" t="n">
-        <v>737.3708771461359</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="F29" t="n">
-        <v>726.4881487176426</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="G29" t="n">
         <v>324.4553010199517</v>
@@ -6460,16 +6460,16 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I29" t="n">
-        <v>103.1440473010162</v>
+        <v>103.1440473010163</v>
       </c>
       <c r="J29" t="n">
-        <v>265.860210285308</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K29" t="n">
         <v>517.9745679998225</v>
       </c>
       <c r="L29" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230812</v>
       </c>
       <c r="M29" t="n">
         <v>1196.576905080624</v>
@@ -6499,16 +6499,16 @@
         <v>1989.457241469476</v>
       </c>
       <c r="V29" t="n">
-        <v>1989.457241469476</v>
+        <v>1979.061590603557</v>
       </c>
       <c r="W29" t="n">
-        <v>1989.457241469476</v>
+        <v>1582.670240903904</v>
       </c>
       <c r="X29" t="n">
-        <v>1989.457241469476</v>
+        <v>1582.670240903904</v>
       </c>
       <c r="Y29" t="n">
-        <v>1584.119971424366</v>
+        <v>1177.332970858794</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C30" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D30" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780835</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510207</v>
       </c>
       <c r="F30" t="n">
         <v>184.4841739339245</v>
@@ -6575,19 +6575,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U30" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V30" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W30" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X30" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y30" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.2067019874278</v>
+        <v>728.6638647350635</v>
       </c>
       <c r="C31" t="n">
-        <v>638.2067019874278</v>
+        <v>728.6638647350635</v>
       </c>
       <c r="D31" t="n">
-        <v>474.8899291141985</v>
+        <v>565.3470918618342</v>
       </c>
       <c r="E31" t="n">
-        <v>308.681723267052</v>
+        <v>399.1388860146877</v>
       </c>
       <c r="F31" t="n">
-        <v>136.8199490416124</v>
+        <v>399.1388860146877</v>
       </c>
       <c r="G31" t="n">
-        <v>50.20544392206816</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H31" t="n">
-        <v>50.20544392206816</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I31" t="n">
         <v>50.20544392206816</v>
@@ -6648,25 +6648,25 @@
         <v>880.7705985416227</v>
       </c>
       <c r="S31" t="n">
-        <v>880.7705985416227</v>
+        <v>728.6638647350635</v>
       </c>
       <c r="T31" t="n">
-        <v>880.7705985416227</v>
+        <v>728.6638647350635</v>
       </c>
       <c r="U31" t="n">
-        <v>880.7705985416227</v>
+        <v>728.6638647350635</v>
       </c>
       <c r="V31" t="n">
-        <v>880.7705985416227</v>
+        <v>728.6638647350635</v>
       </c>
       <c r="W31" t="n">
-        <v>880.7705985416227</v>
+        <v>728.6638647350635</v>
       </c>
       <c r="X31" t="n">
-        <v>638.2067019874278</v>
+        <v>728.6638647350635</v>
       </c>
       <c r="Y31" t="n">
-        <v>638.2067019874278</v>
+        <v>728.6638647350635</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>806.7821922590854</v>
+        <v>1173.724861687094</v>
       </c>
       <c r="C32" t="n">
-        <v>379.8814622723855</v>
+        <v>1173.724861687094</v>
       </c>
       <c r="D32" t="n">
-        <v>379.8814622723855</v>
+        <v>750.4322408720941</v>
       </c>
       <c r="E32" t="n">
-        <v>379.8814622723855</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="F32" t="n">
-        <v>379.8814622723855</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="G32" t="n">
         <v>324.4553010199517</v>
@@ -6697,10 +6697,10 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I32" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010163</v>
       </c>
       <c r="J32" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K32" t="n">
         <v>517.9745679998225</v>
@@ -6739,13 +6739,13 @@
         <v>1631.967826595725</v>
       </c>
       <c r="W32" t="n">
-        <v>1631.967826595725</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="X32" t="n">
-        <v>1631.967826595725</v>
+        <v>1173.724861687094</v>
       </c>
       <c r="Y32" t="n">
-        <v>1226.630556550615</v>
+        <v>1173.724861687094</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>184.4841739339249</v>
       </c>
       <c r="G33" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662206</v>
       </c>
       <c r="H33" t="n">
         <v>50.20544392206816</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>222.1780070431521</v>
+        <v>690.6046298295571</v>
       </c>
       <c r="C34" t="n">
-        <v>50.20544392206816</v>
+        <v>690.6046298295571</v>
       </c>
       <c r="D34" t="n">
-        <v>50.20544392206816</v>
+        <v>527.2878569563278</v>
       </c>
       <c r="E34" t="n">
-        <v>50.20544392206816</v>
+        <v>361.0796511091813</v>
       </c>
       <c r="F34" t="n">
-        <v>50.20544392206816</v>
+        <v>361.0796511091813</v>
       </c>
       <c r="G34" t="n">
-        <v>50.20544392206816</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H34" t="n">
-        <v>50.20544392206816</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I34" t="n">
         <v>50.20544392206816</v>
@@ -6882,28 +6882,28 @@
         <v>880.7705985416227</v>
       </c>
       <c r="R34" t="n">
-        <v>880.2463511302653</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1396173237061</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="T34" t="n">
-        <v>638.6867440654758</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="U34" t="n">
-        <v>638.6867440654758</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="V34" t="n">
-        <v>638.6867440654758</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="W34" t="n">
-        <v>638.6867440654758</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="X34" t="n">
-        <v>638.6867440654758</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="Y34" t="n">
-        <v>412.3439757552178</v>
+        <v>880.7705985416227</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>726.4881487176426</v>
+        <v>1181.34589293757</v>
       </c>
       <c r="C35" t="n">
-        <v>726.4881487176426</v>
+        <v>754.4451629508699</v>
       </c>
       <c r="D35" t="n">
-        <v>726.4881487176426</v>
+        <v>754.4451629508699</v>
       </c>
       <c r="E35" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="F35" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G35" t="n">
-        <v>324.4553010199517</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H35" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I35" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010162</v>
       </c>
       <c r="J35" t="n">
-        <v>265.860210285308</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998224</v>
+        <v>517.9745679998225</v>
       </c>
       <c r="L35" t="n">
         <v>836.7412585230811</v>
@@ -6964,25 +6964,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S35" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2299.442080053587</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U35" t="n">
-        <v>2041.271667827028</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V35" t="n">
-        <v>1939.936767294658</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="W35" t="n">
-        <v>1543.545417595005</v>
+        <v>1593.065891769822</v>
       </c>
       <c r="X35" t="n">
-        <v>1131.825418762752</v>
+        <v>1181.34589293757</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.4881487176426</v>
+        <v>1181.34589293757</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>880.7705985416227</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="C37" t="n">
-        <v>708.7980354205387</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="D37" t="n">
-        <v>545.4812625473094</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="E37" t="n">
-        <v>379.2730567001629</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="F37" t="n">
-        <v>207.4112824747233</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="G37" t="n">
-        <v>50.20544392206816</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H37" t="n">
-        <v>50.20544392206816</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I37" t="n">
         <v>50.20544392206816</v>
@@ -7122,25 +7122,25 @@
         <v>880.7705985416227</v>
       </c>
       <c r="S37" t="n">
-        <v>880.7705985416227</v>
+        <v>728.6638647350635</v>
       </c>
       <c r="T37" t="n">
-        <v>880.7705985416227</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="U37" t="n">
-        <v>880.7705985416227</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="V37" t="n">
-        <v>880.7705985416227</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="W37" t="n">
-        <v>880.7705985416227</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="X37" t="n">
-        <v>880.7705985416227</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="Y37" t="n">
-        <v>880.7705985416227</v>
+        <v>584.8935329546435</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.20544392206816</v>
+        <v>749.5794828305515</v>
       </c>
       <c r="C38" t="n">
-        <v>50.20544392206816</v>
+        <v>749.5794828305515</v>
       </c>
       <c r="D38" t="n">
-        <v>50.20544392206816</v>
+        <v>749.5794828305515</v>
       </c>
       <c r="E38" t="n">
-        <v>50.20544392206816</v>
+        <v>749.5794828305515</v>
       </c>
       <c r="F38" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="G38" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H38" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I38" t="n">
-        <v>103.1440473010162</v>
+        <v>103.1440473010163</v>
       </c>
       <c r="J38" t="n">
-        <v>265.860210285308</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K38" t="n">
         <v>517.9745679998225</v>
       </c>
       <c r="L38" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230812</v>
       </c>
       <c r="M38" t="n">
         <v>1196.576905080624</v>
@@ -7204,22 +7204,22 @@
         <v>2458.457769745855</v>
       </c>
       <c r="T38" t="n">
-        <v>2299.162253890923</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U38" t="n">
-        <v>2040.991841664364</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V38" t="n">
-        <v>1683.502426790614</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W38" t="n">
-        <v>1287.111077090961</v>
+        <v>1574.765117167191</v>
       </c>
       <c r="X38" t="n">
-        <v>875.3910782587079</v>
+        <v>1574.765117167191</v>
       </c>
       <c r="Y38" t="n">
-        <v>470.0538082135982</v>
+        <v>1169.427847122081</v>
       </c>
     </row>
     <row r="39">
@@ -7235,22 +7235,22 @@
         <v>486.6718964627985</v>
       </c>
       <c r="D39" t="n">
-        <v>382.8319379780835</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E39" t="n">
-        <v>278.1300042510207</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F39" t="n">
-        <v>184.4841739339249</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662206</v>
+        <v>91.66433580662169</v>
       </c>
       <c r="H39" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83346633145929</v>
+        <v>75.83346633145936</v>
       </c>
       <c r="J39" t="n">
         <v>169.6881981570806</v>
@@ -7262,10 +7262,10 @@
         <v>583.1000388744362</v>
       </c>
       <c r="M39" t="n">
-        <v>866.6631241688303</v>
+        <v>866.6631241688302</v>
       </c>
       <c r="N39" t="n">
-        <v>1160.072685361482</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O39" t="n">
         <v>1424.874394922369</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>221.6979649651042</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="C40" t="n">
-        <v>221.6979649651042</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="D40" t="n">
-        <v>221.6979649651042</v>
+        <v>437.3258038155656</v>
       </c>
       <c r="E40" t="n">
-        <v>221.6979649651042</v>
+        <v>271.1175979684191</v>
       </c>
       <c r="F40" t="n">
-        <v>221.6979649651042</v>
+        <v>271.1175979684191</v>
       </c>
       <c r="G40" t="n">
-        <v>221.6979649651042</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H40" t="n">
         <v>118.8641208752695</v>
@@ -7365,19 +7365,19 @@
         <v>880.7705985416227</v>
       </c>
       <c r="U40" t="n">
-        <v>880.7705985416227</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="V40" t="n">
-        <v>880.7705985416227</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="W40" t="n">
-        <v>880.7705985416227</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="X40" t="n">
-        <v>638.2067019874278</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="Y40" t="n">
-        <v>411.8639336771698</v>
+        <v>600.6425766887949</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2046.737770913602</v>
+        <v>1175.556422682694</v>
       </c>
       <c r="C41" t="n">
-        <v>1619.837040926902</v>
+        <v>1175.556422682694</v>
       </c>
       <c r="D41" t="n">
-        <v>1196.544420111903</v>
+        <v>1175.556422682694</v>
       </c>
       <c r="E41" t="n">
-        <v>770.5674802597601</v>
+        <v>749.5794828305515</v>
       </c>
       <c r="F41" t="n">
-        <v>345.4432984491604</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="G41" t="n">
         <v>324.4553010199517</v>
@@ -7411,19 +7411,19 @@
         <v>103.1440473010161</v>
       </c>
       <c r="J41" t="n">
-        <v>265.8602102853079</v>
+        <v>265.860210285308</v>
       </c>
       <c r="K41" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998224</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230812</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M41" t="n">
         <v>1196.576905080624</v>
       </c>
       <c r="N41" t="n">
-        <v>1562.984812457615</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O41" t="n">
         <v>1906.806429336002</v>
@@ -7441,22 +7441,22 @@
         <v>2458.457769745855</v>
       </c>
       <c r="T41" t="n">
-        <v>2458.457769745855</v>
+        <v>2247.627653696035</v>
       </c>
       <c r="U41" t="n">
-        <v>2458.457769745855</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V41" t="n">
-        <v>2458.457769745855</v>
+        <v>1983.6677712146</v>
       </c>
       <c r="W41" t="n">
-        <v>2458.457769745855</v>
+        <v>1587.276421514947</v>
       </c>
       <c r="X41" t="n">
-        <v>2046.737770913602</v>
+        <v>1175.556422682694</v>
       </c>
       <c r="Y41" t="n">
-        <v>2046.737770913602</v>
+        <v>1175.556422682694</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.1777999452936</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C42" t="n">
-        <v>486.6718964627984</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D42" t="n">
-        <v>382.8319379780834</v>
+        <v>382.8319379780835</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510206</v>
+        <v>278.1300042510207</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339248</v>
+        <v>184.4841739339249</v>
       </c>
       <c r="G42" t="n">
         <v>91.66433580662169</v>
@@ -7523,7 +7523,7 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U42" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V42" t="n">
         <v>1232.796421412184</v>
@@ -7532,10 +7532,10 @@
         <v>1036.275044245401</v>
       </c>
       <c r="X42" t="n">
-        <v>872.797698012064</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y42" t="n">
-        <v>733.1048093653563</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>551.5921968678834</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="C43" t="n">
-        <v>551.5921968678834</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="D43" t="n">
-        <v>388.2754239946541</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="E43" t="n">
-        <v>222.0672181475077</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="F43" t="n">
-        <v>50.20544392206816</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="G43" t="n">
-        <v>50.20544392206816</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H43" t="n">
-        <v>50.20544392206816</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I43" t="n">
         <v>50.20544392206816</v>
@@ -7596,25 +7596,25 @@
         <v>880.7705985416227</v>
       </c>
       <c r="S43" t="n">
-        <v>880.7705985416227</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="T43" t="n">
-        <v>880.7705985416227</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="U43" t="n">
-        <v>880.7705985416227</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="V43" t="n">
-        <v>880.7705985416227</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="W43" t="n">
-        <v>794.1560934220784</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="X43" t="n">
-        <v>551.5921968678834</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="Y43" t="n">
-        <v>551.5921968678834</v>
+        <v>748.2103058278728</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>681.1637504260824</v>
+        <v>1116.767030843197</v>
       </c>
       <c r="C44" t="n">
-        <v>681.1637504260824</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D44" t="n">
-        <v>681.1637504260824</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E44" t="n">
-        <v>681.1637504260824</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F44" t="n">
-        <v>681.1637504260824</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G44" t="n">
-        <v>324.4553010199516</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H44" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J44" t="n">
-        <v>265.8602102853083</v>
+        <v>265.860210285308</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998224</v>
       </c>
       <c r="L44" t="n">
-        <v>836.7412585230816</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M44" t="n">
         <v>1196.576905080624</v>
@@ -7669,31 +7669,31 @@
         <v>2194.643812107885</v>
       </c>
       <c r="Q44" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R44" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S44" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T44" t="n">
-        <v>2510.272196103407</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U44" t="n">
-        <v>2252.101783876848</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="V44" t="n">
-        <v>1894.612369003098</v>
+        <v>1941.952665179837</v>
       </c>
       <c r="W44" t="n">
-        <v>1498.221019303445</v>
+        <v>1941.952665179837</v>
       </c>
       <c r="X44" t="n">
-        <v>1086.501020471192</v>
+        <v>1941.952665179837</v>
       </c>
       <c r="Y44" t="n">
-        <v>681.1637504260824</v>
+        <v>1536.615395134727</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.1777999452938</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C45" t="n">
-        <v>486.6718964627986</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D45" t="n">
-        <v>382.8319379780837</v>
+        <v>382.8319379780835</v>
       </c>
       <c r="E45" t="n">
-        <v>278.1300042510209</v>
+        <v>278.1300042510207</v>
       </c>
       <c r="F45" t="n">
-        <v>184.484173933925</v>
+        <v>184.4841739339249</v>
       </c>
       <c r="G45" t="n">
-        <v>91.66433580662178</v>
+        <v>91.66433580662206</v>
       </c>
       <c r="H45" t="n">
-        <v>50.20544392206815</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83346633145956</v>
+        <v>75.83346633145929</v>
       </c>
       <c r="J45" t="n">
-        <v>169.688198157081</v>
+        <v>169.6881981570806</v>
       </c>
       <c r="K45" t="n">
-        <v>342.8010428266105</v>
+        <v>342.80104282661</v>
       </c>
       <c r="L45" t="n">
-        <v>583.1000388744368</v>
+        <v>583.1000388744362</v>
       </c>
       <c r="M45" t="n">
-        <v>866.6631241688308</v>
+        <v>866.6631241688303</v>
       </c>
       <c r="N45" t="n">
         <v>1160.072685361482</v>
       </c>
       <c r="O45" t="n">
-        <v>1424.87439492237</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P45" t="n">
-        <v>1634.259488911546</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q45" t="n">
         <v>1766.116009761533</v>
@@ -7757,7 +7757,7 @@
         <v>1759.362893661493</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.456576507552</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U45" t="n">
         <v>1437.769560272918</v>
@@ -7769,10 +7769,10 @@
         <v>1036.275044245401</v>
       </c>
       <c r="X45" t="n">
-        <v>872.7976980120642</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y45" t="n">
-        <v>733.1048093653566</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>425.3246201530809</v>
+        <v>582.0020999807264</v>
       </c>
       <c r="C46" t="n">
-        <v>425.3246201530809</v>
+        <v>582.0020999807264</v>
       </c>
       <c r="D46" t="n">
-        <v>425.3246201530809</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="E46" t="n">
-        <v>425.3246201530809</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="F46" t="n">
-        <v>253.4628459276413</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="G46" t="n">
-        <v>253.4628459276413</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H46" t="n">
         <v>118.8641208752695</v>
       </c>
       <c r="I46" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J46" t="n">
         <v>101.4579413382349</v>
       </c>
       <c r="K46" t="n">
-        <v>198.4999349779649</v>
+        <v>198.499934977965</v>
       </c>
       <c r="L46" t="n">
-        <v>327.539968574382</v>
+        <v>327.5399685743821</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1240622438374</v>
+        <v>464.1240622438376</v>
       </c>
       <c r="N46" t="n">
-        <v>598.7373394060097</v>
+        <v>598.7373394060099</v>
       </c>
       <c r="O46" t="n">
-        <v>719.7736117064335</v>
+        <v>719.7736117064337</v>
       </c>
       <c r="P46" t="n">
-        <v>820.2434820122616</v>
+        <v>820.2434820122618</v>
       </c>
       <c r="Q46" t="n">
-        <v>880.7705985416225</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="R46" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="S46" t="n">
-        <v>841.8333571754044</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="T46" t="n">
-        <v>841.8333571754044</v>
+        <v>862.1301218335541</v>
       </c>
       <c r="U46" t="n">
-        <v>841.8333571754044</v>
+        <v>582.0020999807264</v>
       </c>
       <c r="V46" t="n">
-        <v>841.8333571754044</v>
+        <v>582.0020999807264</v>
       </c>
       <c r="W46" t="n">
-        <v>841.8333571754044</v>
+        <v>582.0020999807264</v>
       </c>
       <c r="X46" t="n">
-        <v>841.8333571754044</v>
+        <v>582.0020999807264</v>
       </c>
       <c r="Y46" t="n">
-        <v>615.4905888651465</v>
+        <v>582.0020999807264</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>402.3867464568655</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -22555,10 +22555,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>406.6591161941419</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>405.8148857330146</v>
       </c>
       <c r="G2" t="n">
         <v>399.9967427842381</v>
@@ -22567,10 +22567,10 @@
         <v>291.8282880968454</v>
       </c>
       <c r="I2" t="n">
-        <v>23.02344218634935</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J2" t="n">
-        <v>4.048734084456797</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.84370531743626</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R2" t="n">
-        <v>16.25505095986411</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S2" t="n">
-        <v>96.51177654778196</v>
+        <v>96.51177654778198</v>
       </c>
       <c r="T2" t="n">
         <v>217.4077535386488</v>
@@ -22606,16 +22606,16 @@
         <v>255.7474459893752</v>
       </c>
       <c r="V2" t="n">
-        <v>338.8564664655339</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>377.3693819431774</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>392.5447445844511</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.0207631529094</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22625,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>112.579685066383</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>103.067710255921</v>
       </c>
       <c r="D3" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>88.59686013031299</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>77.65131775444573</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
         <v>92.95329294796625</v>
@@ -22649,7 +22649,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J3" t="n">
-        <v>5.500186294714744</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,16 +22670,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.330695053476177</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4794060503274746</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S3" t="n">
-        <v>77.54016887301826</v>
+        <v>62.48211461353915</v>
       </c>
       <c r="T3" t="n">
-        <v>139.8164614059971</v>
+        <v>124.758407146518</v>
       </c>
       <c r="U3" t="n">
         <v>182.9099916776777</v>
@@ -22691,7 +22691,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>146.7845185115246</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
         <v>138.2959597602405</v>
@@ -22725,28 +22725,28 @@
         <v>141.1661303916059</v>
       </c>
       <c r="I4" t="n">
-        <v>94.73845284923043</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J4" t="n">
         <v>11.15664534489041</v>
       </c>
       <c r="K4" t="n">
-        <v>5.385920497900834</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L4" t="n">
-        <v>1.983344003918603</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M4" t="n">
-        <v>1.556338985162739</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2295873088291422</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O4" t="n">
-        <v>3.546280180004722</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P4" t="n">
-        <v>6.163314231162722</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q4" t="n">
         <v>13.39141578060923</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>397.4315733783146</v>
+        <v>405.1617310593514</v>
       </c>
       <c r="C5" t="n">
-        <v>404.4134154165328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>400.8413873365496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>405.6704854099407</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22801,13 +22801,13 @@
         <v>399.9846413962156</v>
       </c>
       <c r="H5" t="n">
-        <v>291.7043547567607</v>
+        <v>273.4860474864606</v>
       </c>
       <c r="I5" t="n">
-        <v>22.55690342461458</v>
+        <v>22.55690342461459</v>
       </c>
       <c r="J5" t="n">
-        <v>3.021643902788</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.536891551628969</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>15.49488714450009</v>
       </c>
       <c r="S5" t="n">
-        <v>96.23601616822083</v>
+        <v>78.01770889792071</v>
       </c>
       <c r="T5" t="n">
         <v>217.3547797125806</v>
@@ -22852,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>383.0655900743585</v>
       </c>
     </row>
     <row r="6">
@@ -22874,10 +22874,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>90.00322081467667</v>
       </c>
       <c r="G6" t="n">
-        <v>92.94681813455406</v>
+        <v>74.72851086425395</v>
       </c>
       <c r="H6" t="n">
         <v>51.2351047706663</v>
@@ -22886,7 +22886,7 @@
         <v>10.44271547525859</v>
       </c>
       <c r="J6" t="n">
-        <v>4.888458418784959</v>
+        <v>4.888458418784962</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.504190801070976</v>
+        <v>1.50419080107098</v>
       </c>
       <c r="R6" t="n">
-        <v>13.34053384443211</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>61.37321701003693</v>
+        <v>59.20159478341716</v>
       </c>
       <c r="T6" t="n">
-        <v>121.5720560939172</v>
+        <v>139.7903633642173</v>
       </c>
       <c r="U6" t="n">
-        <v>164.691258432811</v>
+        <v>182.9095657031111</v>
       </c>
       <c r="V6" t="n">
         <v>184.7051002018263</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>187.6751851830144</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -22968,22 +22968,22 @@
         <v>10.77286693432814</v>
       </c>
       <c r="K7" t="n">
-        <v>4.755254677277744</v>
+        <v>4.755254677277748</v>
       </c>
       <c r="L7" t="n">
-        <v>1.176308884163515</v>
+        <v>1.176308884163518</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1163097641238598</v>
+        <v>0.7054336060544557</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.779019446119918</v>
+        <v>2.779019446119921</v>
       </c>
       <c r="P7" t="n">
-        <v>5.506790124936618</v>
+        <v>5.506790124936622</v>
       </c>
       <c r="Q7" t="n">
         <v>12.9368725197517</v>
@@ -23029,10 +23029,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>401.0098152792947</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>397.3632270334493</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>376.4529045982248</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1585647136001427</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.11143217127993</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>95.73414793822852</v>
+        <v>72.22443497918414</v>
       </c>
       <c r="T8" t="n">
         <v>217.2583703575925</v>
@@ -23086,7 +23086,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>401.165440554484</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23108,7 +23108,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>80.14520143074776</v>
       </c>
       <c r="F9" t="n">
         <v>92.70937201392488</v>
@@ -23120,10 +23120,10 @@
         <v>51.12129814120099</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.03700156004394</v>
       </c>
       <c r="J9" t="n">
-        <v>3.775148425455178</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12.60890503121191</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>77.20102327270656</v>
@@ -23156,19 +23156,19 @@
         <v>139.7428664103214</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9087904535916</v>
+        <v>159.3990774945472</v>
       </c>
       <c r="V9" t="n">
-        <v>192.253053857844</v>
+        <v>179.413694513082</v>
       </c>
       <c r="W9" t="n">
-        <v>171.0464504360706</v>
+        <v>190.2328616774558</v>
       </c>
       <c r="X9" t="n">
-        <v>138.3328598119593</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
-        <v>114.7862468011961</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="10">
@@ -23220,7 +23220,7 @@
         <v>1.382648484235652</v>
       </c>
       <c r="P10" t="n">
-        <v>1.128120508310781</v>
+        <v>4.311953536506707</v>
       </c>
       <c r="Q10" t="n">
         <v>12.10962959912422</v>
@@ -23241,7 +23241,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>268.9200467610162</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -23260,25 +23260,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>334.5380422188313</v>
       </c>
       <c r="D11" t="n">
-        <v>388.5867866923227</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>333.6234899856195</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>332.7792595244922</v>
       </c>
       <c r="G11" t="n">
-        <v>399.9373748401208</v>
+        <v>399.7379713523258</v>
       </c>
       <c r="H11" t="n">
-        <v>291.2202861391545</v>
+        <v>289.1781451697731</v>
       </c>
       <c r="I11" t="n">
-        <v>20.73465952076844</v>
+        <v>13.04715655754853</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>80.84417157030227</v>
+        <v>90.61502254307932</v>
       </c>
       <c r="T11" t="n">
-        <v>186.6749624487485</v>
+        <v>138.6820678392367</v>
       </c>
       <c r="U11" t="n">
-        <v>225.2697886393188</v>
+        <v>255.7267442748222</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23351,16 +23351,16 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.92152829748879</v>
+        <v>92.81483802569352</v>
       </c>
       <c r="H12" t="n">
-        <v>50.99085818637803</v>
+        <v>49.96045477193429</v>
       </c>
       <c r="I12" t="n">
-        <v>9.57199082191487</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.499123417806988</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.77034553962527</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>76.95015442226369</v>
+        <v>73.12956744908406</v>
       </c>
       <c r="T12" t="n">
-        <v>109.2155196590632</v>
+        <v>51.16471043988753</v>
       </c>
       <c r="U12" t="n">
-        <v>152.4349939835141</v>
+        <v>94.80720233321085</v>
       </c>
       <c r="V12" t="n">
-        <v>172.4504995575994</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
-        <v>167.7156261039996</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X12" t="n">
-        <v>161.8425727710037</v>
+        <v>73.74889230300218</v>
       </c>
       <c r="Y12" t="n">
         <v>138.2959597602405</v>
@@ -23430,19 +23430,19 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.4336803334017</v>
+        <v>164.3442347934871</v>
       </c>
       <c r="H13" t="n">
-        <v>140.9293617846389</v>
+        <v>140.1341096206706</v>
       </c>
       <c r="I13" t="n">
-        <v>85.45251234786755</v>
+        <v>91.24773228659839</v>
       </c>
       <c r="J13" t="n">
-        <v>9.273874939591304</v>
+        <v>2.950075267626382</v>
       </c>
       <c r="K13" t="n">
-        <v>2.291950357779633</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,25 +23457,25 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.942486473402749</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.16148158963455</v>
+        <v>3.671637333691528</v>
       </c>
       <c r="R13" t="n">
-        <v>39.34168614264573</v>
+        <v>35.31988941157481</v>
       </c>
       <c r="S13" t="n">
-        <v>165.6327913918166</v>
+        <v>164.0739995734861</v>
       </c>
       <c r="T13" t="n">
-        <v>240.2192429564045</v>
+        <v>239.8370665585874</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3738374869546</v>
+        <v>277.368958639323</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>202.1698235059607</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>385.1769727340878</v>
+        <v>338.056966892399</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>330.9660141388482</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>390.4000320779668</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>369.4644669255939</v>
+        <v>399.7379713523258</v>
       </c>
       <c r="H14" t="n">
-        <v>276.905528188247</v>
+        <v>289.1781451697731</v>
       </c>
       <c r="I14" t="n">
-        <v>20.73465952076844</v>
+        <v>13.04715655754853</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.15892952120976</v>
+        <v>2.521342075077783</v>
       </c>
       <c r="T14" t="n">
-        <v>217.1478703632754</v>
+        <v>216.2749815954525</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7426965538458</v>
+        <v>167.6330638068207</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23582,22 +23582,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>73.18200647526517</v>
+        <v>15.5612339217906</v>
       </c>
       <c r="F15" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>66.08099100637345</v>
+        <v>79.93112268298921</v>
       </c>
       <c r="H15" t="n">
-        <v>50.99085818637803</v>
+        <v>49.96045477193429</v>
       </c>
       <c r="I15" t="n">
-        <v>9.571990821914872</v>
+        <v>5.89866348159544</v>
       </c>
       <c r="J15" t="n">
-        <v>2.499123417806995</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.77034553962528</v>
+        <v>5.146189892547326</v>
       </c>
       <c r="S15" t="n">
-        <v>76.95015442226369</v>
+        <v>74.9684294176455</v>
       </c>
       <c r="T15" t="n">
-        <v>139.6884275735901</v>
+        <v>51.16471043988753</v>
       </c>
       <c r="U15" t="n">
-        <v>182.907901898041</v>
+        <v>182.9008828012124</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W15" t="n">
-        <v>164.083255480588</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X15" t="n">
-        <v>131.3696648564767</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
-        <v>138.2959597602405</v>
+        <v>50.20227929223898</v>
       </c>
     </row>
     <row r="16">
@@ -23667,19 +23667,19 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.4336803334017</v>
+        <v>164.3442347934871</v>
       </c>
       <c r="H16" t="n">
-        <v>132.4442705182933</v>
+        <v>140.1341096206706</v>
       </c>
       <c r="I16" t="n">
-        <v>93.93760361421315</v>
+        <v>91.24773228659839</v>
       </c>
       <c r="J16" t="n">
-        <v>9.273874939591307</v>
+        <v>2.950075267626378</v>
       </c>
       <c r="K16" t="n">
-        <v>2.291950357779641</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,25 +23694,25 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.942486473402756</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.16148158963456</v>
+        <v>3.671637333691525</v>
       </c>
       <c r="R16" t="n">
-        <v>39.34168614264573</v>
+        <v>35.31988941157481</v>
       </c>
       <c r="S16" t="n">
-        <v>165.6327913918166</v>
+        <v>164.0739995734861</v>
       </c>
       <c r="T16" t="n">
-        <v>240.2192429564045</v>
+        <v>239.8370665585874</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3738374869546</v>
+        <v>277.368958639323</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>202.1698235059607</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -23734,10 +23734,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>231.3757282864639</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>250.6014147390048</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -23746,10 +23746,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>208.1435512582262</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H17" t="n">
-        <v>117.2539631660097</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6996702193238</v>
+        <v>64.44367581895483</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>162.6585263246441</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>216.3468044435612</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>210.0279029442896</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>116.3308444476703</v>
@@ -23819,16 +23819,16 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.63376431607153</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>35.24755658776839</v>
+        <v>48.21166394479565</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,22 +23861,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>71.60506467971084</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>138.5285367888426</v>
       </c>
       <c r="U18" t="n">
-        <v>182.8889700571583</v>
+        <v>21.10178383982614</v>
       </c>
       <c r="V18" t="n">
-        <v>11.66741307175741</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W18" t="n">
-        <v>3.300168994745974</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
         <v>138.2959597602405</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>161.785503809566</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23943,13 +23943,13 @@
         <v>161.4284329972273</v>
       </c>
       <c r="T19" t="n">
-        <v>239.1884404287796</v>
+        <v>212.7096352134006</v>
       </c>
       <c r="U19" t="n">
         <v>277.3606783057509</v>
       </c>
       <c r="V19" t="n">
-        <v>87.63835831768239</v>
+        <v>87.63835831768245</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>247.1916007807698</v>
+        <v>224.3938862482458</v>
       </c>
       <c r="C20" t="n">
-        <v>231.3757282864638</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>227.8037002064806</v>
+        <v>227.8037002064807</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>229.6169455921248</v>
       </c>
       <c r="G20" t="n">
         <v>399.3995456585952</v>
@@ -24022,13 +24022,13 @@
         <v>82.90314704719353</v>
       </c>
       <c r="T20" t="n">
-        <v>23.53752872077777</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U20" t="n">
         <v>255.6996702193238</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>185.456240857168</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24053,19 +24053,19 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8015588998678</v>
+        <v>52.91989939969125</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>92.63376431607153</v>
       </c>
       <c r="H21" t="n">
-        <v>48.21166394479565</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>71.60506467971084</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>138.5285367888426</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V21" t="n">
-        <v>11.66741307175735</v>
+        <v>11.66741307175744</v>
       </c>
       <c r="W21" t="n">
-        <v>11.38245892387332</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
         <v>161.8425727710037</v>
@@ -24144,10 +24144,10 @@
         <v>164.1924286780001</v>
       </c>
       <c r="H22" t="n">
-        <v>138.7844152484321</v>
+        <v>7.732124009911701</v>
       </c>
       <c r="I22" t="n">
-        <v>86.68250837722755</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>161.4284329972273</v>
       </c>
       <c r="T22" t="n">
-        <v>212.7096352134007</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U22" t="n">
-        <v>86.10468390538188</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -24208,22 +24208,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>78.79413487866117</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>288.2109356887044</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5190049372437358</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
         <v>150.5856664684936</v>
       </c>
       <c r="T25" t="n">
-        <v>101.8787204645291</v>
+        <v>105.2953780451384</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -24429,7 +24429,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -24445,13 +24445,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>366.9837066480021</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>96.16743640262126</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>65.48917057702076</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T28" t="n">
-        <v>236.5300678317505</v>
+        <v>105.2953780451381</v>
       </c>
       <c r="U28" t="n">
         <v>277.3267416342995</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0990388482854</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>343.6228263677532</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>77.82189629970829</v>
+        <v>19.35097668188124</v>
       </c>
       <c r="H31" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0.5190049372437358</v>
       </c>
       <c r="S31" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>236.5300678317505</v>
@@ -24903,7 +24903,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>343.1406195808045</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>346.369699787042</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5702563680571</v>
+        <v>57.02961923833256</v>
       </c>
       <c r="H34" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.5190049372437358</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
-        <v>147.9717233061024</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U34" t="n">
         <v>277.3267416342995</v>
@@ -25143,7 +25143,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>122.5323678358214</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>253.5929691979664</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>7.936476200928515</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0.5190049372437358</v>
       </c>
       <c r="S37" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.5300678317505</v>
+        <v>94.19743936913474</v>
       </c>
       <c r="U37" t="n">
         <v>277.3267416342995</v>
@@ -25402,13 +25402,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H38" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>51.01925419293988</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>335.7967538684079</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5702563680571</v>
+        <v>146.0920518476872</v>
       </c>
       <c r="H40" t="n">
-        <v>31.44723215291177</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25614,10 +25614,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>377.2344017657974</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>348.1829451726855</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0.5190049372437358</v>
       </c>
       <c r="S43" t="n">
-        <v>150.5856664684936</v>
+        <v>19.35097668188129</v>
       </c>
       <c r="T43" t="n">
         <v>236.5300678317505</v>
@@ -25848,10 +25848,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3555197208632</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>36.25562938253421</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25879,7 +25879,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>44.87115430864453</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.29628209397736</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.5190049372437358</v>
       </c>
       <c r="S46" t="n">
-        <v>112.5568024531816</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5300678317505</v>
+        <v>218.0759958907626</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26091,7 +26091,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>58925.20123868139</v>
+        <v>58925.20123868138</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>66318.19348778264</v>
+        <v>66318.19348778266</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>71759.19693496772</v>
+        <v>111210.3198234502</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71759.19693496769</v>
+        <v>111210.3198234502</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>178093.5695095766</v>
+        <v>178093.5695095765</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>452032.3271294655</v>
+        <v>452032.3271294654</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>452032.3271294654</v>
+        <v>452032.3271294653</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>452032.3271294654</v>
+        <v>452032.3271294653</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>452032.3271294653</v>
+        <v>452032.3271294654</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18900.53624636951</v>
+        <v>18900.5362463695</v>
       </c>
       <c r="C2" t="n">
         <v>19774.39376387104</v>
@@ -26322,40 +26322,40 @@
         <v>21271.87338287369</v>
       </c>
       <c r="E2" t="n">
-        <v>23017.1009036689</v>
+        <v>35671.23466035195</v>
       </c>
       <c r="F2" t="n">
-        <v>23017.1009036689</v>
+        <v>35671.23466035193</v>
       </c>
       <c r="G2" t="n">
-        <v>57124.35248420381</v>
+        <v>57124.35248420379</v>
       </c>
       <c r="H2" t="n">
-        <v>57124.35248420382</v>
+        <v>57124.3524842038</v>
       </c>
       <c r="I2" t="n">
         <v>144991.5011547341</v>
       </c>
       <c r="J2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="K2" t="n">
         <v>144991.5011547341</v>
       </c>
       <c r="L2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="M2" t="n">
         <v>144991.5011547341</v>
       </c>
       <c r="N2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="O2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
       <c r="P2" t="n">
-        <v>144991.5011547342</v>
+        <v>144991.5011547341</v>
       </c>
     </row>
     <row r="3">
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76699.20362794725</v>
+        <v>76699.20362794719</v>
       </c>
       <c r="C3" t="n">
-        <v>3762.097706969906</v>
+        <v>3762.097706969926</v>
       </c>
       <c r="D3" t="n">
-        <v>6335.473445957272</v>
+        <v>6335.473445957283</v>
       </c>
       <c r="E3" t="n">
-        <v>7123.725401352043</v>
+        <v>64178.10880470016</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>148084.3374776133</v>
+        <v>93726.73517785456</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>375740.1254450973</v>
+        <v>375740.1254450972</v>
       </c>
       <c r="J3" t="n">
         <v>3939.849548667163</v>
       </c>
       <c r="K3" t="n">
-        <v>813.3479968889704</v>
+        <v>813.3479968889759</v>
       </c>
       <c r="L3" t="n">
-        <v>1339.207157169975</v>
+        <v>1339.207157169974</v>
       </c>
       <c r="M3" t="n">
-        <v>1735.256035686085</v>
+        <v>16094.58303910216</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>38692.61054590437</v>
+        <v>24826.11401013818</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.9111573773535</v>
+        <v>10.91115737735348</v>
       </c>
       <c r="C4" t="n">
-        <v>13.22273493796324</v>
+        <v>13.22273493796323</v>
       </c>
       <c r="D4" t="n">
         <v>17.15222569169689</v>
       </c>
       <c r="E4" t="n">
-        <v>22.39251918675428</v>
+        <v>62.45231285262344</v>
       </c>
       <c r="F4" t="n">
-        <v>22.39251918675425</v>
+        <v>62.45231285262346</v>
       </c>
       <c r="G4" t="n">
         <v>134.583956678369</v>
@@ -26438,7 +26438,7 @@
         <v>134.583956678369</v>
       </c>
       <c r="I4" t="n">
-        <v>440.4537918539643</v>
+        <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
         <v>440.4537918539643</v>
@@ -26459,7 +26459,7 @@
         <v>440.4537918539643</v>
       </c>
       <c r="P4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539643</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36164.14694569839</v>
+        <v>36164.14694569838</v>
       </c>
       <c r="C5" t="n">
         <v>36421.91313065494</v>
@@ -26478,10 +26478,10 @@
         <v>36863.06036917747</v>
       </c>
       <c r="E5" t="n">
-        <v>3795.707566887204</v>
+        <v>8380.365801579239</v>
       </c>
       <c r="F5" t="n">
-        <v>3795.707566887204</v>
+        <v>8380.365801579239</v>
       </c>
       <c r="G5" t="n">
         <v>16487.83241934473</v>
@@ -26508,10 +26508,10 @@
         <v>50537.10295659397</v>
       </c>
       <c r="O5" t="n">
+        <v>50537.10295659398</v>
+      </c>
+      <c r="P5" t="n">
         <v>50537.10295659397</v>
-      </c>
-      <c r="P5" t="n">
-        <v>50537.10295659396</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93973.72548465349</v>
+        <v>-95318.6525297027</v>
       </c>
       <c r="C6" t="n">
-        <v>-20422.83980869177</v>
+        <v>-21762.62651540281</v>
       </c>
       <c r="D6" t="n">
-        <v>-21943.81265795275</v>
+        <v>-23274.79066102259</v>
       </c>
       <c r="E6" t="n">
-        <v>12075.27541624289</v>
+        <v>-38195.96813668827</v>
       </c>
       <c r="F6" t="n">
-        <v>19199.00081759494</v>
+        <v>25982.14066801187</v>
       </c>
       <c r="G6" t="n">
-        <v>-107582.4013694326</v>
+        <v>-54344.88013685351</v>
       </c>
       <c r="H6" t="n">
-        <v>40501.93610818071</v>
+        <v>39381.85504100105</v>
       </c>
       <c r="I6" t="n">
-        <v>-281726.1810388111</v>
+        <v>-282329.3965255759</v>
       </c>
       <c r="J6" t="n">
-        <v>90074.09485761914</v>
+        <v>89470.87937085427</v>
       </c>
       <c r="K6" t="n">
-        <v>93200.5964093972</v>
+        <v>92597.38092263244</v>
       </c>
       <c r="L6" t="n">
-        <v>92674.7372491163</v>
+        <v>92071.52176235145</v>
       </c>
       <c r="M6" t="n">
-        <v>92278.6883706001</v>
+        <v>77316.14588041927</v>
       </c>
       <c r="N6" t="n">
-        <v>94013.94440628626</v>
+        <v>93410.72891952144</v>
       </c>
       <c r="O6" t="n">
-        <v>55321.33386038187</v>
+        <v>68584.61490938326</v>
       </c>
       <c r="P6" t="n">
-        <v>94013.94440628627</v>
+        <v>93410.72891952141</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="C3" t="n">
-        <v>77.36880956975664</v>
+        <v>77.36880956975662</v>
       </c>
       <c r="D3" t="n">
         <v>82.84723950768694</v>
       </c>
       <c r="E3" t="n">
-        <v>89.12636539834699</v>
+        <v>138.7279829873737</v>
       </c>
       <c r="F3" t="n">
-        <v>89.12636539834696</v>
+        <v>138.7279829873737</v>
       </c>
       <c r="G3" t="n">
         <v>222.9113743028576</v>
@@ -26758,7 +26758,7 @@
         <v>222.9113743028576</v>
       </c>
       <c r="I3" t="n">
-        <v>567.9342007257878</v>
+        <v>567.9342007257877</v>
       </c>
       <c r="J3" t="n">
         <v>567.9342007257878</v>
@@ -26779,7 +26779,7 @@
         <v>567.9342007257878</v>
       </c>
       <c r="P3" t="n">
-        <v>567.9342007257877</v>
+        <v>567.9342007257878</v>
       </c>
     </row>
     <row r="4">
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="C4" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="D4" t="n">
-        <v>23.50971295904438</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="E4" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="F4" t="n">
-        <v>30.47290791452697</v>
+        <v>88.09368046800154</v>
       </c>
       <c r="G4" t="n">
-        <v>191.255994400369</v>
+        <v>191.2559944003689</v>
       </c>
       <c r="H4" t="n">
         <v>191.255994400369</v>
@@ -26828,10 +26828,10 @@
         <v>627.5680490258519</v>
       </c>
       <c r="O4" t="n">
+        <v>627.568049025852</v>
+      </c>
+      <c r="P4" t="n">
         <v>627.5680490258519</v>
-      </c>
-      <c r="P4" t="n">
-        <v>627.5680490258518</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.35858929917694</v>
+        <v>74.35858929917691</v>
       </c>
       <c r="C3" t="n">
-        <v>3.010220270579694</v>
+        <v>3.010220270579708</v>
       </c>
       <c r="D3" t="n">
-        <v>5.478429937930301</v>
+        <v>5.478429937930315</v>
       </c>
       <c r="E3" t="n">
-        <v>6.279125890660055</v>
+        <v>55.88074347968671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>133.7850089045106</v>
+        <v>84.1833913154839</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>345.0228264229302</v>
+        <v>345.0228264229301</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="C4" t="n">
-        <v>3.160253010820966</v>
+        <v>3.160253010820988</v>
       </c>
       <c r="D4" t="n">
-        <v>5.291405688744266</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="E4" t="n">
-        <v>6.963194955482596</v>
+        <v>64.58396750895716</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.783086485842</v>
+        <v>103.1623139323674</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27038,19 +27038,19 @@
         <v>15.05805425947915</v>
       </c>
       <c r="K4" t="n">
-        <v>3.160253010820966</v>
+        <v>3.160253010820988</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744266</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="M4" t="n">
-        <v>6.963194955482596</v>
+        <v>64.58396750895716</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>160.783086485842</v>
+        <v>103.1623139323675</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="K4" t="n">
-        <v>3.160253010820966</v>
+        <v>3.160253010820988</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744266</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="M4" t="n">
-        <v>6.963194955482596</v>
+        <v>64.58396750895716</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>160.783086485842</v>
+        <v>103.1623139323674</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2989290022077463</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H2" t="n">
-        <v>3.061406643860082</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I2" t="n">
-        <v>11.52446035761415</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J2" t="n">
-        <v>25.37122540112973</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K2" t="n">
-        <v>38.02489006458364</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L2" t="n">
-        <v>47.17323851589896</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M2" t="n">
-        <v>52.48931715891096</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N2" t="n">
-        <v>52.33767709392517</v>
+        <v>52.33767709392515</v>
       </c>
       <c r="O2" t="n">
-        <v>50.36617392073045</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P2" t="n">
-        <v>42.9863641787267</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.28096928716178</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R2" t="n">
-        <v>18.77759893493236</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S2" t="n">
-        <v>6.811844637809025</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T2" t="n">
         <v>1.30856170716441</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0239143201766197</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>0.1599411166057768</v>
       </c>
       <c r="H3" t="n">
-        <v>1.544694468271582</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I3" t="n">
-        <v>5.506744584891878</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J3" t="n">
         <v>15.11092803861859</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L3" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M3" t="n">
-        <v>38.15483477180712</v>
+        <v>38.1548347718071</v>
       </c>
       <c r="N3" t="n">
-        <v>36.40108247302081</v>
+        <v>35.3863861687183</v>
       </c>
       <c r="O3" t="n">
-        <v>38.054060318042</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P3" t="n">
-        <v>24.18389391839849</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.41634323550232</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R3" t="n">
-        <v>9.930379152067445</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S3" t="n">
-        <v>2.970836091339756</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6446749393013546</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01052244188195901</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1340892593919584</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H4" t="n">
         <v>1.192175415321231</v>
       </c>
       <c r="I4" t="n">
-        <v>4.032429727896351</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J4" t="n">
-        <v>9.480110639011459</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K4" t="n">
         <v>15.57873395481116</v>
       </c>
       <c r="L4" t="n">
-        <v>19.93541589178262</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M4" t="n">
-        <v>21.01910090632308</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N4" t="n">
-        <v>20.51931366677125</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O4" t="n">
-        <v>18.95290731841973</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P4" t="n">
         <v>16.21748642682376</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.22814698417572</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R4" t="n">
-        <v>6.029140699569329</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S4" t="n">
-        <v>2.336810093221674</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5729268355838221</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007313959603197739</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,10 +31278,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3110303902301772</v>
+        <v>0.3110303902301771</v>
       </c>
       <c r="H5" t="n">
-        <v>3.185339983944803</v>
+        <v>3.185339983944802</v>
       </c>
       <c r="I5" t="n">
         <v>11.99099911934892</v>
@@ -31293,19 +31293,19 @@
         <v>39.56423200124193</v>
       </c>
       <c r="L5" t="n">
-        <v>49.08292830624873</v>
+        <v>49.08292830624872</v>
       </c>
       <c r="M5" t="n">
-        <v>54.61421500850464</v>
+        <v>54.61421500850463</v>
       </c>
       <c r="N5" t="n">
-        <v>55.49793010474614</v>
+        <v>55.49793010474612</v>
       </c>
       <c r="O5" t="n">
-        <v>52.40512166189481</v>
+        <v>52.4051216618948</v>
       </c>
       <c r="P5" t="n">
-        <v>44.7265589030873</v>
+        <v>44.72655890308729</v>
       </c>
       <c r="Q5" t="n">
         <v>33.58778305296907</v>
@@ -31314,7 +31314,7 @@
         <v>19.53776275029638</v>
       </c>
       <c r="S5" t="n">
-        <v>7.08760501737017</v>
+        <v>7.087605017370168</v>
       </c>
       <c r="T5" t="n">
         <v>1.361535533232601</v>
@@ -31363,10 +31363,10 @@
         <v>1.607227534647209</v>
       </c>
       <c r="I6" t="n">
-        <v>5.729671274741412</v>
+        <v>5.729671274741411</v>
       </c>
       <c r="J6" t="n">
-        <v>15.72265591454838</v>
+        <v>15.72265591454837</v>
       </c>
       <c r="K6" t="n">
         <v>26.87252322575217</v>
@@ -31375,7 +31375,7 @@
         <v>36.13342375236606</v>
       </c>
       <c r="M6" t="n">
-        <v>32.49398676858093</v>
+        <v>32.49398676858095</v>
       </c>
       <c r="N6" t="n">
         <v>39.56133548384177</v>
@@ -31384,7 +31384,7 @@
         <v>39.59458313896781</v>
       </c>
       <c r="P6" t="n">
-        <v>31.77814368913269</v>
+        <v>31.77814368913268</v>
       </c>
       <c r="Q6" t="n">
         <v>21.24284748790752</v>
@@ -31393,10 +31393,10 @@
         <v>10.33238554971203</v>
       </c>
       <c r="S6" t="n">
-        <v>3.091102910640747</v>
+        <v>3.091102910640746</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6707729810811918</v>
+        <v>0.6707729810811917</v>
       </c>
       <c r="U6" t="n">
         <v>0.01094841644855047</v>
@@ -31439,22 +31439,22 @@
         <v>0.1395175254536595</v>
       </c>
       <c r="H7" t="n">
-        <v>1.240437635397083</v>
+        <v>1.240437635397082</v>
       </c>
       <c r="I7" t="n">
-        <v>4.195672492733689</v>
+        <v>4.195672492733688</v>
       </c>
       <c r="J7" t="n">
-        <v>9.863889049573725</v>
+        <v>9.863889049573723</v>
       </c>
       <c r="K7" t="n">
         <v>16.20939977543425</v>
       </c>
       <c r="L7" t="n">
-        <v>20.74245101153771</v>
+        <v>20.7424510115377</v>
       </c>
       <c r="M7" t="n">
-        <v>21.87000628543137</v>
+        <v>21.87000628543136</v>
       </c>
       <c r="N7" t="n">
         <v>21.34998641783138</v>
@@ -31463,22 +31463,22 @@
         <v>19.72016805230453</v>
       </c>
       <c r="P7" t="n">
-        <v>16.87401053304987</v>
+        <v>16.87401053304986</v>
       </c>
       <c r="Q7" t="n">
         <v>11.68269024503325</v>
       </c>
       <c r="R7" t="n">
-        <v>6.273215280852725</v>
+        <v>6.273215280852723</v>
       </c>
       <c r="S7" t="n">
-        <v>2.431409966315138</v>
+        <v>2.431409966315137</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5961203360292722</v>
+        <v>0.5961203360292721</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00761004684292689</v>
+        <v>0.007610046842926889</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31530,10 +31530,10 @@
         <v>42.36574690462687</v>
       </c>
       <c r="L8" t="n">
-        <v>52.55845527079119</v>
+        <v>52.55845527079118</v>
       </c>
       <c r="M8" t="n">
-        <v>58.48140841891109</v>
+        <v>58.48140841891108</v>
       </c>
       <c r="N8" t="n">
         <v>59.4276987475592</v>
@@ -31606,19 +31606,19 @@
         <v>16.83596590787816</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>28.77534732975953</v>
       </c>
       <c r="L9" t="n">
         <v>38.69200558328342</v>
       </c>
       <c r="M9" t="n">
-        <v>45.15174553168937</v>
+        <v>38.6391521129061</v>
       </c>
       <c r="N9" t="n">
         <v>44.85274117258604</v>
       </c>
       <c r="O9" t="n">
-        <v>42.26176726229853</v>
+        <v>42.3982471846556</v>
       </c>
       <c r="P9" t="n">
         <v>34.02833126118561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3582969463250127</v>
+        <v>0.5577004341200946</v>
       </c>
       <c r="H11" t="n">
-        <v>3.669408601551038</v>
+        <v>5.711549570932421</v>
       </c>
       <c r="I11" t="n">
-        <v>13.81324302319507</v>
+        <v>21.50074598641497</v>
       </c>
       <c r="J11" t="n">
-        <v>30.41000544815258</v>
+        <v>47.33412722040043</v>
       </c>
       <c r="K11" t="n">
-        <v>45.57671518609038</v>
+        <v>70.94158659670404</v>
       </c>
       <c r="L11" t="n">
-        <v>56.5419453571845</v>
+        <v>88.00931125740691</v>
       </c>
       <c r="M11" t="n">
-        <v>62.91380867639194</v>
+        <v>97.92731635269014</v>
       </c>
       <c r="N11" t="n">
-        <v>63.93181987513789</v>
+        <v>99.51188271113386</v>
       </c>
       <c r="O11" t="n">
-        <v>60.36900461511854</v>
+        <v>93.96624901935218</v>
       </c>
       <c r="P11" t="n">
-        <v>51.52354875271978</v>
+        <v>80.19801955201233</v>
       </c>
       <c r="Q11" t="n">
-        <v>38.69203936245525</v>
+        <v>60.22537275508641</v>
       </c>
       <c r="R11" t="n">
-        <v>22.5068705545886</v>
+        <v>35.03264989479643</v>
       </c>
       <c r="S11" t="n">
-        <v>8.164691664381236</v>
+        <v>12.70859864251167</v>
       </c>
       <c r="T11" t="n">
-        <v>1.568444882537744</v>
+        <v>2.441333650360716</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02866375570600101</v>
+        <v>0.04461603472960756</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1917057670832369</v>
+        <v>0.2983960388785018</v>
       </c>
       <c r="H12" t="n">
-        <v>1.851474118935473</v>
+        <v>2.881877533379215</v>
       </c>
       <c r="I12" t="n">
-        <v>6.600395928085132</v>
+        <v>10.27372326840456</v>
       </c>
       <c r="J12" t="n">
-        <v>18.11199091552635</v>
+        <v>28.191881901236</v>
       </c>
       <c r="K12" t="n">
-        <v>30.95627731010322</v>
+        <v>48.18441650609562</v>
       </c>
       <c r="L12" t="n">
-        <v>41.62453508533178</v>
+        <v>64.78989431877295</v>
       </c>
       <c r="M12" t="n">
-        <v>48.57386914209911</v>
+        <v>75.60675072811863</v>
       </c>
       <c r="N12" t="n">
-        <v>49.85947492223188</v>
+        <v>77.60783644498369</v>
       </c>
       <c r="O12" t="n">
-        <v>45.61167871475593</v>
+        <v>70.99600842562319</v>
       </c>
       <c r="P12" t="n">
-        <v>36.60739336521917</v>
+        <v>56.98055588022901</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.47107300522162</v>
+        <v>38.08999261192947</v>
       </c>
       <c r="R12" t="n">
-        <v>11.90257385451887</v>
+        <v>18.52672950159681</v>
       </c>
       <c r="S12" t="n">
-        <v>3.560850542094333</v>
+        <v>5.542575546712519</v>
       </c>
       <c r="T12" t="n">
-        <v>0.77270877170831</v>
+        <v>1.2027454374094</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01261222151863401</v>
+        <v>0.01963131834726986</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1607196753084945</v>
+        <v>0.2501652152231328</v>
       </c>
       <c r="H13" t="n">
-        <v>1.428944022288253</v>
+        <v>2.224196186256582</v>
       </c>
       <c r="I13" t="n">
-        <v>4.833278962913638</v>
+        <v>7.523150290528395</v>
       </c>
       <c r="J13" t="n">
-        <v>11.36288104431056</v>
+        <v>17.68668071627549</v>
       </c>
       <c r="K13" t="n">
-        <v>18.67270409493236</v>
+        <v>29.06464955046942</v>
       </c>
       <c r="L13" t="n">
-        <v>23.8946324545011</v>
+        <v>37.19274481599195</v>
       </c>
       <c r="M13" t="n">
-        <v>25.19353964858519</v>
+        <v>39.21453460084071</v>
       </c>
       <c r="N13" t="n">
-        <v>24.59449358607174</v>
+        <v>38.28210061682724</v>
       </c>
       <c r="O13" t="n">
-        <v>22.71699556087704</v>
+        <v>35.35971605717518</v>
       </c>
       <c r="P13" t="n">
-        <v>19.43831418458374</v>
+        <v>30.25634566662325</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.4580811751504</v>
+        <v>20.94792543109342</v>
       </c>
       <c r="R13" t="n">
-        <v>7.226541037052853</v>
+        <v>11.24833776812377</v>
       </c>
       <c r="S13" t="n">
-        <v>2.800905614239854</v>
+        <v>4.359697432570413</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6867113399544765</v>
+        <v>1.068887737771567</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008766527744099714</v>
+        <v>0.01364537537580726</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3582969463250126</v>
+        <v>0.5577004341200947</v>
       </c>
       <c r="H14" t="n">
-        <v>3.669408601551037</v>
+        <v>5.711549570932422</v>
       </c>
       <c r="I14" t="n">
-        <v>13.81324302319506</v>
+        <v>21.50074598641497</v>
       </c>
       <c r="J14" t="n">
-        <v>30.41000544815257</v>
+        <v>47.33412722040044</v>
       </c>
       <c r="K14" t="n">
-        <v>45.57671518609036</v>
+        <v>70.94158659670406</v>
       </c>
       <c r="L14" t="n">
-        <v>56.54194535718448</v>
+        <v>88.00931125740694</v>
       </c>
       <c r="M14" t="n">
-        <v>62.91380867639192</v>
+        <v>97.92731635269016</v>
       </c>
       <c r="N14" t="n">
-        <v>63.93181987513787</v>
+        <v>99.51188271113389</v>
       </c>
       <c r="O14" t="n">
-        <v>60.36900461511852</v>
+        <v>93.96624901935219</v>
       </c>
       <c r="P14" t="n">
-        <v>51.52354875271976</v>
+        <v>80.19801955201234</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.69203936245523</v>
+        <v>60.22537275508643</v>
       </c>
       <c r="R14" t="n">
-        <v>22.50687055458859</v>
+        <v>35.03264989479644</v>
       </c>
       <c r="S14" t="n">
-        <v>8.164691664381234</v>
+        <v>12.70859864251167</v>
       </c>
       <c r="T14" t="n">
-        <v>1.568444882537744</v>
+        <v>2.441333650360716</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02866375570600101</v>
+        <v>0.04461603472960757</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1917057670832369</v>
+        <v>0.2983960388785019</v>
       </c>
       <c r="H15" t="n">
-        <v>1.851474118935472</v>
+        <v>2.881877533379216</v>
       </c>
       <c r="I15" t="n">
-        <v>6.600395928085129</v>
+        <v>10.27372326840456</v>
       </c>
       <c r="J15" t="n">
-        <v>18.11199091552634</v>
+        <v>28.19188190123601</v>
       </c>
       <c r="K15" t="n">
-        <v>30.95627731010321</v>
+        <v>48.18441650609563</v>
       </c>
       <c r="L15" t="n">
-        <v>41.62453508533176</v>
+        <v>64.78989431877297</v>
       </c>
       <c r="M15" t="n">
-        <v>48.57386914209908</v>
+        <v>75.60675072811864</v>
       </c>
       <c r="N15" t="n">
-        <v>49.85947492223185</v>
+        <v>77.6078364449837</v>
       </c>
       <c r="O15" t="n">
-        <v>45.61167871475592</v>
+        <v>70.9960084256232</v>
       </c>
       <c r="P15" t="n">
-        <v>36.60739336521915</v>
+        <v>56.98055588022902</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.47107300522161</v>
+        <v>38.08999261192947</v>
       </c>
       <c r="R15" t="n">
-        <v>11.90257385451887</v>
+        <v>18.52672950159682</v>
       </c>
       <c r="S15" t="n">
-        <v>3.560850542094331</v>
+        <v>5.54257554671252</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7727087717083098</v>
+        <v>1.2027454374094</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01261222151863401</v>
+        <v>0.01963131834726987</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1607196753084945</v>
+        <v>0.2501652152231328</v>
       </c>
       <c r="H16" t="n">
-        <v>1.428944022288252</v>
+        <v>2.224196186256583</v>
       </c>
       <c r="I16" t="n">
-        <v>4.833278962913636</v>
+        <v>7.523150290528397</v>
       </c>
       <c r="J16" t="n">
-        <v>11.36288104431056</v>
+        <v>17.68668071627549</v>
       </c>
       <c r="K16" t="n">
-        <v>18.67270409493236</v>
+        <v>29.06464955046943</v>
       </c>
       <c r="L16" t="n">
-        <v>23.89463245450109</v>
+        <v>37.19274481599196</v>
       </c>
       <c r="M16" t="n">
-        <v>25.19353964858519</v>
+        <v>39.21453460084071</v>
       </c>
       <c r="N16" t="n">
-        <v>24.59449358607172</v>
+        <v>38.28210061682726</v>
       </c>
       <c r="O16" t="n">
-        <v>22.71699556087703</v>
+        <v>35.35971605717519</v>
       </c>
       <c r="P16" t="n">
-        <v>19.43831418458373</v>
+        <v>30.25634566662325</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.45808117515039</v>
+        <v>20.94792543109342</v>
       </c>
       <c r="R16" t="n">
-        <v>7.226541037052852</v>
+        <v>11.24833776812377</v>
       </c>
       <c r="S16" t="n">
-        <v>2.800905614239853</v>
+        <v>4.359697432570414</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6867113399544763</v>
+        <v>1.068887737771567</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00876652774409971</v>
+        <v>0.01364537537580726</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8961261278506831</v>
+        <v>0.896126127850683</v>
       </c>
       <c r="H17" t="n">
-        <v>9.177451706850812</v>
+        <v>9.17745170685081</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
-        <v>76.057584943667</v>
+        <v>76.05758494366698</v>
       </c>
       <c r="K17" t="n">
         <v>113.9906039355864</v>
@@ -32253,22 +32253,22 @@
         <v>150.9871711239019</v>
       </c>
       <c r="P17" t="n">
-        <v>128.8640573425882</v>
+        <v>128.8640573425881</v>
       </c>
       <c r="Q17" t="n">
-        <v>96.77154038893553</v>
+        <v>96.77154038893552</v>
       </c>
       <c r="R17" t="n">
-        <v>56.29128287860053</v>
+        <v>56.29128287860052</v>
       </c>
       <c r="S17" t="n">
         <v>20.42047413839746</v>
       </c>
       <c r="T17" t="n">
-        <v>3.922792124666368</v>
+        <v>3.922792124666367</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07169009022805464</v>
+        <v>0.07169009022805463</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4794697485004862</v>
+        <v>0.4794697485004861</v>
       </c>
       <c r="H18" t="n">
         <v>4.630668360517854</v>
       </c>
       <c r="I18" t="n">
-        <v>16.50805932337201</v>
+        <v>16.508059323372</v>
       </c>
       <c r="J18" t="n">
-        <v>45.29937654582884</v>
+        <v>45.29937654582883</v>
       </c>
       <c r="K18" t="n">
-        <v>77.42384969536141</v>
+        <v>77.4238496953614</v>
       </c>
       <c r="L18" t="n">
         <v>104.1059206119148</v>
@@ -32326,22 +32326,22 @@
         <v>121.4866989950574</v>
       </c>
       <c r="N18" t="n">
-        <v>124.7020904225015</v>
+        <v>124.7020904225014</v>
       </c>
       <c r="O18" t="n">
         <v>114.0780502057275</v>
       </c>
       <c r="P18" t="n">
-        <v>91.55769258865864</v>
+        <v>91.55769258865863</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.20389280858839</v>
+        <v>61.20389280858838</v>
       </c>
       <c r="R18" t="n">
         <v>29.76918315689862</v>
       </c>
       <c r="S18" t="n">
-        <v>8.905940284647183</v>
+        <v>8.905940284647182</v>
       </c>
       <c r="T18" t="n">
         <v>1.932599556455906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4019713307100711</v>
+        <v>0.401971330710071</v>
       </c>
       <c r="H19" t="n">
-        <v>3.573890558494998</v>
+        <v>3.573890558494997</v>
       </c>
       <c r="I19" t="n">
         <v>12.08837419989923</v>
@@ -32399,10 +32399,10 @@
         <v>46.70176005886097</v>
       </c>
       <c r="L19" t="n">
-        <v>59.76217402211366</v>
+        <v>59.76217402211365</v>
       </c>
       <c r="M19" t="n">
-        <v>63.01083323121595</v>
+        <v>63.01083323121594</v>
       </c>
       <c r="N19" t="n">
         <v>61.51257645311482</v>
@@ -32414,13 +32414,13 @@
         <v>48.61660530697075</v>
       </c>
       <c r="Q19" t="n">
-        <v>33.6596175197315</v>
+        <v>33.65961751973149</v>
       </c>
       <c r="R19" t="n">
-        <v>18.07409274265465</v>
+        <v>18.07409274265464</v>
       </c>
       <c r="S19" t="n">
-        <v>7.005264008829145</v>
+        <v>7.005264008829144</v>
       </c>
       <c r="T19" t="n">
         <v>1.717513867579394</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.283152565731809</v>
+        <v>2.283152565731808</v>
       </c>
       <c r="H23" t="n">
         <v>23.38233621380089</v>
       </c>
       <c r="I23" t="n">
-        <v>88.02123929037563</v>
+        <v>88.02123929037562</v>
       </c>
       <c r="J23" t="n">
-        <v>193.7797200757803</v>
+        <v>193.7797200757802</v>
       </c>
       <c r="K23" t="n">
-        <v>290.4255681832078</v>
+        <v>290.4255681832077</v>
       </c>
       <c r="L23" t="n">
-        <v>360.2985985167227</v>
+        <v>360.2985985167226</v>
       </c>
       <c r="M23" t="n">
-        <v>400.9016129575558</v>
+        <v>400.9016129575556</v>
       </c>
       <c r="N23" t="n">
-        <v>407.3886201849413</v>
+        <v>407.3886201849412</v>
       </c>
       <c r="O23" t="n">
-        <v>384.6855218594456</v>
+        <v>384.6855218594455</v>
       </c>
       <c r="P23" t="n">
-        <v>328.3201928929415</v>
+        <v>328.3201928929414</v>
       </c>
       <c r="Q23" t="n">
         <v>246.554791632671</v>
@@ -32736,10 +32736,10 @@
         <v>143.4190823571508</v>
       </c>
       <c r="S23" t="n">
-        <v>52.02733909161364</v>
+        <v>52.02733909161363</v>
       </c>
       <c r="T23" t="n">
-        <v>9.994500356490997</v>
+        <v>9.994500356490995</v>
       </c>
       <c r="U23" t="n">
         <v>0.1826522052585446</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.221594318542261</v>
+        <v>1.22159431854226</v>
       </c>
       <c r="H24" t="n">
         <v>11.79802933960552</v>
       </c>
       <c r="I24" t="n">
-        <v>42.05927807261731</v>
+        <v>42.0592780726173</v>
       </c>
       <c r="J24" t="n">
         <v>115.4138737531528</v>
       </c>
       <c r="K24" t="n">
-        <v>197.2606930954843</v>
+        <v>197.2606930954842</v>
       </c>
       <c r="L24" t="n">
         <v>265.2413453483974</v>
       </c>
       <c r="M24" t="n">
-        <v>309.5241393955543</v>
+        <v>309.5241393955542</v>
       </c>
       <c r="N24" t="n">
-        <v>317.716322347533</v>
+        <v>317.7163223475329</v>
       </c>
       <c r="O24" t="n">
-        <v>290.6483640261492</v>
+        <v>290.6483640261491</v>
       </c>
       <c r="P24" t="n">
         <v>233.2709361433901</v>
@@ -32812,16 +32812,16 @@
         <v>155.9354431879559</v>
       </c>
       <c r="R24" t="n">
-        <v>75.84600514598354</v>
+        <v>75.84600514598353</v>
       </c>
       <c r="S24" t="n">
-        <v>22.69057867994066</v>
+        <v>22.69057867994065</v>
       </c>
       <c r="T24" t="n">
-        <v>4.923882362896215</v>
+        <v>4.923882362896214</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08036804727251719</v>
+        <v>0.08036804727251716</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,13 +32861,13 @@
         <v>1.02414364065306</v>
       </c>
       <c r="H25" t="n">
-        <v>9.10556800507903</v>
+        <v>9.105568005079029</v>
       </c>
       <c r="I25" t="n">
         <v>30.79879239345748</v>
       </c>
       <c r="J25" t="n">
-        <v>72.40695539417133</v>
+        <v>72.40695539417132</v>
       </c>
       <c r="K25" t="n">
         <v>118.9868702504191</v>
@@ -32882,25 +32882,25 @@
         <v>156.7219082101179</v>
       </c>
       <c r="O25" t="n">
-        <v>144.7580484079435</v>
+        <v>144.7580484079434</v>
       </c>
       <c r="P25" t="n">
         <v>123.8655181386209</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.75806430959396</v>
+        <v>85.75806430959395</v>
       </c>
       <c r="R25" t="n">
-        <v>46.04922224245485</v>
+        <v>46.04922224245484</v>
       </c>
       <c r="S25" t="n">
-        <v>17.84803053756287</v>
+        <v>17.84803053756286</v>
       </c>
       <c r="T25" t="n">
-        <v>4.375886464608528</v>
+        <v>4.375886464608527</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05586238039925788</v>
+        <v>0.05586238039925787</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.283152565731808</v>
+        <v>2.283152565731809</v>
       </c>
       <c r="H44" t="n">
         <v>23.38233621380089</v>
       </c>
       <c r="I44" t="n">
-        <v>88.02123929037562</v>
+        <v>88.02123929037563</v>
       </c>
       <c r="J44" t="n">
-        <v>193.7797200757802</v>
+        <v>193.7797200757803</v>
       </c>
       <c r="K44" t="n">
-        <v>290.4255681832077</v>
+        <v>290.4255681832078</v>
       </c>
       <c r="L44" t="n">
-        <v>360.2985985167226</v>
+        <v>360.2985985167227</v>
       </c>
       <c r="M44" t="n">
-        <v>400.9016129575556</v>
+        <v>400.9016129575558</v>
       </c>
       <c r="N44" t="n">
-        <v>407.3886201849412</v>
+        <v>407.3886201849413</v>
       </c>
       <c r="O44" t="n">
-        <v>384.6855218594455</v>
+        <v>384.6855218594456</v>
       </c>
       <c r="P44" t="n">
-        <v>328.3201928929414</v>
+        <v>328.3201928929415</v>
       </c>
       <c r="Q44" t="n">
         <v>246.554791632671</v>
@@ -34395,10 +34395,10 @@
         <v>143.4190823571508</v>
       </c>
       <c r="S44" t="n">
-        <v>52.02733909161363</v>
+        <v>52.02733909161364</v>
       </c>
       <c r="T44" t="n">
-        <v>9.994500356490995</v>
+        <v>9.994500356490997</v>
       </c>
       <c r="U44" t="n">
         <v>0.1826522052585446</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.22159431854226</v>
+        <v>1.221594318542261</v>
       </c>
       <c r="H45" t="n">
         <v>11.79802933960552</v>
       </c>
       <c r="I45" t="n">
-        <v>42.0592780726173</v>
+        <v>42.05927807261731</v>
       </c>
       <c r="J45" t="n">
         <v>115.4138737531528</v>
       </c>
       <c r="K45" t="n">
-        <v>197.2606930954842</v>
+        <v>197.2606930954843</v>
       </c>
       <c r="L45" t="n">
         <v>265.2413453483974</v>
       </c>
       <c r="M45" t="n">
-        <v>309.5241393955542</v>
+        <v>309.5241393955543</v>
       </c>
       <c r="N45" t="n">
-        <v>317.7163223475329</v>
+        <v>317.716322347533</v>
       </c>
       <c r="O45" t="n">
-        <v>290.6483640261491</v>
+        <v>290.6483640261492</v>
       </c>
       <c r="P45" t="n">
         <v>233.2709361433901</v>
@@ -34471,16 +34471,16 @@
         <v>155.9354431879559</v>
       </c>
       <c r="R45" t="n">
-        <v>75.84600514598353</v>
+        <v>75.84600514598354</v>
       </c>
       <c r="S45" t="n">
-        <v>22.69057867994065</v>
+        <v>22.69057867994066</v>
       </c>
       <c r="T45" t="n">
-        <v>4.923882362896214</v>
+        <v>4.923882362896215</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08036804727251716</v>
+        <v>0.08036804727251719</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,13 +34520,13 @@
         <v>1.02414364065306</v>
       </c>
       <c r="H46" t="n">
-        <v>9.105568005079029</v>
+        <v>9.10556800507903</v>
       </c>
       <c r="I46" t="n">
         <v>30.79879239345748</v>
       </c>
       <c r="J46" t="n">
-        <v>72.40695539417132</v>
+        <v>72.40695539417133</v>
       </c>
       <c r="K46" t="n">
         <v>118.9868702504191</v>
@@ -34541,25 +34541,25 @@
         <v>156.7219082101179</v>
       </c>
       <c r="O46" t="n">
-        <v>144.7580484079434</v>
+        <v>144.7580484079435</v>
       </c>
       <c r="P46" t="n">
         <v>123.8655181386209</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.75806430959395</v>
+        <v>85.75806430959396</v>
       </c>
       <c r="R46" t="n">
-        <v>46.04922224245484</v>
+        <v>46.04922224245485</v>
       </c>
       <c r="S46" t="n">
-        <v>17.84803053756286</v>
+        <v>17.84803053756287</v>
       </c>
       <c r="T46" t="n">
-        <v>4.375886464608527</v>
+        <v>4.375886464608528</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05586238039925787</v>
+        <v>0.05586238039925788</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.260289269774297</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L2" t="n">
-        <v>8.861196083276035</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M2" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N2" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="O2" t="n">
-        <v>12.97521456470635</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P2" t="n">
-        <v>5.411002368495403</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L3" t="n">
-        <v>12.21247897686247</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M3" t="n">
-        <v>15.05805425947915</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N3" t="n">
-        <v>15.05805425947915</v>
+        <v>14.04335795517664</v>
       </c>
       <c r="O3" t="n">
-        <v>14.88217059581978</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P3" t="n">
-        <v>2.413052713569828</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.799631206432593</v>
+        <v>3.799631206432586</v>
       </c>
       <c r="L5" t="n">
-        <v>10.77088587362581</v>
+        <v>10.77088587362579</v>
       </c>
       <c r="M5" t="n">
-        <v>17.18295210907283</v>
+        <v>17.18295210907282</v>
       </c>
       <c r="N5" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="O5" t="n">
-        <v>15.01416230587071</v>
+        <v>15.0141623058707</v>
       </c>
       <c r="P5" t="n">
-        <v>7.151197092856002</v>
+        <v>7.151197092855995</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.473289392418835</v>
+        <v>4.473289392418831</v>
       </c>
       <c r="L6" t="n">
-        <v>13.61833703813651</v>
+        <v>13.6183370381365</v>
       </c>
       <c r="M6" t="n">
-        <v>9.397206256252952</v>
+        <v>9.397206256252977</v>
       </c>
       <c r="N6" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="O6" t="n">
-        <v>16.42269341674559</v>
+        <v>16.42269341674558</v>
       </c>
       <c r="P6" t="n">
         <v>10.00730248430402</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.601085442230989</v>
+        <v>0.6010854422309855</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>6.601146109817527</v>
       </c>
       <c r="L8" t="n">
-        <v>14.24641283816826</v>
+        <v>14.24641283816825</v>
       </c>
       <c r="M8" t="n">
         <v>21.05014551947927</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.376113496426193</v>
       </c>
       <c r="L9" t="n">
         <v>16.17691886905386</v>
       </c>
       <c r="M9" t="n">
-        <v>22.05496501936139</v>
+        <v>15.54237160057813</v>
       </c>
       <c r="N9" t="n">
-        <v>23.50971295904438</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="O9" t="n">
-        <v>19.08987754007631</v>
+        <v>19.22635746243337</v>
       </c>
       <c r="P9" t="n">
         <v>12.25749005635694</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9900459625660538</v>
+        <v>17.9141677348139</v>
       </c>
       <c r="K11" t="n">
-        <v>9.812114391281035</v>
+        <v>35.1769858018947</v>
       </c>
       <c r="L11" t="n">
-        <v>18.22990292456158</v>
+        <v>49.69726882478398</v>
       </c>
       <c r="M11" t="n">
-        <v>25.48254577696013</v>
+        <v>60.49605345325833</v>
       </c>
       <c r="N11" t="n">
-        <v>26.65219704069187</v>
+        <v>62.23225987668784</v>
       </c>
       <c r="O11" t="n">
-        <v>22.97804525909444</v>
+        <v>56.57528966332808</v>
       </c>
       <c r="P11" t="n">
-        <v>13.94818694248848</v>
+        <v>42.62265774178103</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.567364757857206</v>
+        <v>24.10069815048837</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.580767567902665</v>
       </c>
       <c r="K12" t="n">
-        <v>8.557043476769884</v>
+        <v>25.78518267276229</v>
       </c>
       <c r="L12" t="n">
-        <v>19.10944837110222</v>
+        <v>42.2748076045434</v>
       </c>
       <c r="M12" t="n">
-        <v>25.47708862977113</v>
+        <v>52.50997021579064</v>
       </c>
       <c r="N12" t="n">
-        <v>28.51644670869021</v>
+        <v>56.26480823144203</v>
       </c>
       <c r="O12" t="n">
-        <v>22.43978899253371</v>
+        <v>47.82411870340097</v>
       </c>
       <c r="P12" t="n">
-        <v>14.8365521603905</v>
+        <v>35.20971467540034</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.724034716243118</v>
+        <v>15.34295432295097</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>8.099995097757425</v>
       </c>
       <c r="L13" t="n">
-        <v>1.975872558799875</v>
+        <v>15.27398492029073</v>
       </c>
       <c r="M13" t="n">
-        <v>2.618099757099376</v>
+        <v>16.63909470935489</v>
       </c>
       <c r="N13" t="n">
-        <v>3.845592610471343</v>
+        <v>17.53319964122685</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2178080624525869</v>
+        <v>12.86052855875073</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>7.875545008636763</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9900459625660467</v>
+        <v>17.91416773481392</v>
       </c>
       <c r="K14" t="n">
-        <v>9.812114391281021</v>
+        <v>35.17698580189472</v>
       </c>
       <c r="L14" t="n">
-        <v>18.22990292456156</v>
+        <v>49.69726882478401</v>
       </c>
       <c r="M14" t="n">
-        <v>25.48254577696011</v>
+        <v>60.49605345325834</v>
       </c>
       <c r="N14" t="n">
-        <v>26.65219704069185</v>
+        <v>62.23225987668787</v>
       </c>
       <c r="O14" t="n">
-        <v>22.97804525909442</v>
+        <v>56.57528966332809</v>
       </c>
       <c r="P14" t="n">
-        <v>13.94818694248846</v>
+        <v>42.62265774178104</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.567364757857192</v>
+        <v>24.10069815048838</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7.580767567902672</v>
       </c>
       <c r="K15" t="n">
-        <v>8.557043476769874</v>
+        <v>25.78518267276229</v>
       </c>
       <c r="L15" t="n">
-        <v>19.10944837110221</v>
+        <v>42.27480760454341</v>
       </c>
       <c r="M15" t="n">
-        <v>25.47708862977111</v>
+        <v>52.50997021579066</v>
       </c>
       <c r="N15" t="n">
-        <v>28.51644670869019</v>
+        <v>56.26480823144204</v>
       </c>
       <c r="O15" t="n">
-        <v>22.4397889925337</v>
+        <v>47.82411870340098</v>
       </c>
       <c r="P15" t="n">
-        <v>14.83655216039049</v>
+        <v>35.20971467540036</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.724034716243107</v>
+        <v>15.34295432295098</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>8.099995097757429</v>
       </c>
       <c r="L16" t="n">
-        <v>1.975872558799868</v>
+        <v>15.27398492029074</v>
       </c>
       <c r="M16" t="n">
-        <v>2.618099757099369</v>
+        <v>16.6390947093549</v>
       </c>
       <c r="N16" t="n">
-        <v>3.845592610471332</v>
+        <v>17.53319964122687</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2178080624525798</v>
+        <v>12.86052855875074</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>7.87554500863677</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>46.63762545808047</v>
+        <v>46.63762545808046</v>
       </c>
       <c r="K17" t="n">
-        <v>78.2260031407771</v>
+        <v>78.22600314077708</v>
       </c>
       <c r="L17" t="n">
         <v>103.1033814881739</v>
@@ -35901,13 +35901,13 @@
         <v>113.5962117678778</v>
       </c>
       <c r="P17" t="n">
-        <v>91.28869553235685</v>
+        <v>91.28869553235683</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.64686578433749</v>
+        <v>60.64686578433748</v>
       </c>
       <c r="R17" t="n">
-        <v>21.25863298380406</v>
+        <v>21.25863298380405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3356725733720047</v>
+        <v>0.3356725733720012</v>
       </c>
       <c r="J18" t="n">
-        <v>24.6882622124955</v>
+        <v>24.68826221249549</v>
       </c>
       <c r="K18" t="n">
-        <v>55.02461586202807</v>
+        <v>55.02461586202806</v>
       </c>
       <c r="L18" t="n">
-        <v>81.59083389768523</v>
+        <v>81.59083389768521</v>
       </c>
       <c r="M18" t="n">
-        <v>98.3899184827294</v>
+        <v>98.38991848272939</v>
       </c>
       <c r="N18" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O18" t="n">
-        <v>90.9061604835053</v>
+        <v>90.90616048350529</v>
       </c>
       <c r="P18" t="n">
         <v>69.78685138382997</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.45685451960989</v>
+        <v>38.45685451960988</v>
       </c>
       <c r="R18" t="n">
-        <v>6.096263762754475</v>
+        <v>6.096263762754472</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7.782617097300154</v>
+        <v>7.78261709730015</v>
       </c>
       <c r="K19" t="n">
         <v>25.73710560614897</v>
       </c>
       <c r="L19" t="n">
-        <v>37.84341412641244</v>
+        <v>37.84341412641243</v>
       </c>
       <c r="M19" t="n">
         <v>40.43539333973013</v>
@@ -36056,13 +36056,13 @@
         <v>40.76367547751443</v>
       </c>
       <c r="O19" t="n">
-        <v>34.3176329550318</v>
+        <v>34.31763295503178</v>
       </c>
       <c r="P19" t="n">
-        <v>26.23580464898427</v>
+        <v>26.23580464898426</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.040054754946549</v>
+        <v>9.040054754946542</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>53.47333674641213</v>
+        <v>53.47333674641212</v>
       </c>
       <c r="J23" t="n">
         <v>164.3597605901937</v>
       </c>
       <c r="K23" t="n">
-        <v>254.6609673883985</v>
+        <v>254.6609673883984</v>
       </c>
       <c r="L23" t="n">
         <v>321.9865560840997</v>
       </c>
       <c r="M23" t="n">
-        <v>363.4703500581239</v>
+        <v>363.4703500581238</v>
       </c>
       <c r="N23" t="n">
-        <v>370.1089973504953</v>
+        <v>370.1089973504952</v>
       </c>
       <c r="O23" t="n">
-        <v>347.2945625034215</v>
+        <v>347.2945625034214</v>
       </c>
       <c r="P23" t="n">
-        <v>290.7448310827102</v>
+        <v>290.7448310827101</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.430117028073</v>
+        <v>210.4301170280729</v>
       </c>
       <c r="R23" t="n">
-        <v>108.3864324623544</v>
+        <v>108.3864324623543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.88689132261731</v>
+        <v>25.8868913226173</v>
       </c>
       <c r="J24" t="n">
-        <v>94.80275941981948</v>
+        <v>94.80275941981945</v>
       </c>
       <c r="K24" t="n">
         <v>174.8614592621509</v>
       </c>
       <c r="L24" t="n">
-        <v>242.7262586341679</v>
+        <v>242.7262586341678</v>
       </c>
       <c r="M24" t="n">
-        <v>286.4273588832263</v>
+        <v>286.4273588832262</v>
       </c>
       <c r="N24" t="n">
-        <v>296.3732941339913</v>
+        <v>296.3732941339912</v>
       </c>
       <c r="O24" t="n">
-        <v>267.476474303927</v>
+        <v>267.4764743039269</v>
       </c>
       <c r="P24" t="n">
-        <v>211.5000949385615</v>
+        <v>211.5000949385614</v>
       </c>
       <c r="Q24" t="n">
         <v>133.1884048989774</v>
       </c>
       <c r="R24" t="n">
-        <v>52.17308575183939</v>
+        <v>52.17308575183938</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>51.77019941026947</v>
+        <v>51.77019941026946</v>
       </c>
       <c r="K25" t="n">
-        <v>98.02221579770712</v>
+        <v>98.02221579770709</v>
       </c>
       <c r="L25" t="n">
         <v>130.3434682792092</v>
@@ -36533,10 +36533,10 @@
         <v>122.258860909519</v>
       </c>
       <c r="P25" t="n">
-        <v>101.4847174806345</v>
+        <v>101.4847174806344</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.13850154480902</v>
+        <v>61.138501544809</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>53.47333674641212</v>
+        <v>53.47333674641213</v>
       </c>
       <c r="J44" t="n">
         <v>164.3597605901937</v>
       </c>
       <c r="K44" t="n">
-        <v>254.6609673883984</v>
+        <v>254.6609673883985</v>
       </c>
       <c r="L44" t="n">
         <v>321.9865560840997</v>
       </c>
       <c r="M44" t="n">
-        <v>363.4703500581238</v>
+        <v>363.4703500581239</v>
       </c>
       <c r="N44" t="n">
-        <v>370.1089973504952</v>
+        <v>370.1089973504953</v>
       </c>
       <c r="O44" t="n">
-        <v>347.2945625034214</v>
+        <v>347.2945625034215</v>
       </c>
       <c r="P44" t="n">
-        <v>290.7448310827101</v>
+        <v>290.7448310827102</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.4301170280729</v>
+        <v>210.430117028073</v>
       </c>
       <c r="R44" t="n">
-        <v>108.3864324623543</v>
+        <v>108.3864324623544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.8868913226173</v>
+        <v>25.88689132261731</v>
       </c>
       <c r="J45" t="n">
-        <v>94.80275941981945</v>
+        <v>94.80275941981948</v>
       </c>
       <c r="K45" t="n">
         <v>174.8614592621509</v>
       </c>
       <c r="L45" t="n">
-        <v>242.7262586341678</v>
+        <v>242.7262586341679</v>
       </c>
       <c r="M45" t="n">
-        <v>286.4273588832262</v>
+        <v>286.4273588832263</v>
       </c>
       <c r="N45" t="n">
-        <v>296.3732941339912</v>
+        <v>296.3732941339913</v>
       </c>
       <c r="O45" t="n">
-        <v>267.4764743039269</v>
+        <v>267.476474303927</v>
       </c>
       <c r="P45" t="n">
-        <v>211.5000949385614</v>
+        <v>211.5000949385615</v>
       </c>
       <c r="Q45" t="n">
         <v>133.1884048989774</v>
       </c>
       <c r="R45" t="n">
-        <v>52.17308575183938</v>
+        <v>52.17308575183939</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.77019941026946</v>
+        <v>51.77019941026947</v>
       </c>
       <c r="K46" t="n">
-        <v>98.02221579770709</v>
+        <v>98.02221579770712</v>
       </c>
       <c r="L46" t="n">
         <v>130.3434682792092</v>
@@ -38192,10 +38192,10 @@
         <v>122.258860909519</v>
       </c>
       <c r="P46" t="n">
-        <v>101.4847174806344</v>
+        <v>101.4847174806345</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.138501544809</v>
+        <v>61.13850154480902</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
